--- a/data_test_input/test_book.xlsx
+++ b/data_test_input/test_book.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,26 +541,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v/>
-      </c>
-      <c r="C1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" t="n">
-        <v/>
-      </c>
-      <c r="E1" t="n">
-        <v/>
-      </c>
-      <c r="F1" t="n">
-        <v>192</v>
-      </c>
-      <c r="G1" t="n">
-        <v>3852849599.999999</v>
+          <t>tagid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>intvalue</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>floatvalue</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>stringvalue</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>datevalue</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dataintegrity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>t_stamp</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -573,7 +585,7 @@
         <v/>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v/>
@@ -585,7 +597,7 @@
         <v>192</v>
       </c>
       <c r="G2" t="n">
-        <v>3852852000</v>
+        <v>3852849599999.999</v>
       </c>
     </row>
     <row r="3">
@@ -598,7 +610,7 @@
         <v/>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
         <v/>
@@ -610,7 +622,7 @@
         <v>192</v>
       </c>
       <c r="G3" t="n">
-        <v>3852856800</v>
+        <v>3852853195000</v>
       </c>
     </row>
     <row r="4">
@@ -623,7 +635,7 @@
         <v/>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
         <v/>
@@ -635,7 +647,7 @@
         <v>192</v>
       </c>
       <c r="G4" t="n">
-        <v>3852860399.999999</v>
+        <v>3852856800000</v>
       </c>
     </row>
     <row r="5">
@@ -648,7 +660,7 @@
         <v/>
       </c>
       <c r="C5" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v/>
@@ -660,7 +672,7 @@
         <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>3852861000</v>
+        <v>3852860399999.999</v>
       </c>
     </row>
     <row r="6">
@@ -685,7 +697,7 @@
         <v>192</v>
       </c>
       <c r="G6" t="n">
-        <v>3852864000.000001</v>
+        <v>3852864000000.001</v>
       </c>
     </row>
     <row r="7">
@@ -710,7 +722,7 @@
         <v>192</v>
       </c>
       <c r="G7" t="n">
-        <v>3852867600</v>
+        <v>3852867600000</v>
       </c>
     </row>
     <row r="8">
@@ -735,7 +747,7 @@
         <v>192</v>
       </c>
       <c r="G8" t="n">
-        <v>3852871199.999999</v>
+        <v>3852871199999.999</v>
       </c>
     </row>
     <row r="9">
@@ -760,7 +772,7 @@
         <v>192</v>
       </c>
       <c r="G9" t="n">
-        <v>3852874800.000001</v>
+        <v>3852874800000.001</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +785,7 @@
         <v/>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>53.5</v>
       </c>
       <c r="D10" t="n">
         <v/>
@@ -785,7 +797,7 @@
         <v>192</v>
       </c>
       <c r="G10" t="n">
-        <v>3852878400</v>
+        <v>3852878700000</v>
       </c>
     </row>
     <row r="11">
@@ -798,7 +810,7 @@
         <v/>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>58.75</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -810,7 +822,7 @@
         <v>192</v>
       </c>
       <c r="G11" t="n">
-        <v>3852879000</v>
+        <v>3852881987000</v>
       </c>
     </row>
     <row r="12">
@@ -823,7 +835,7 @@
         <v/>
       </c>
       <c r="C12" t="n">
-        <v>60.5</v>
+        <v>64</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -835,7 +847,7 @@
         <v>192</v>
       </c>
       <c r="G12" t="n">
-        <v>3852882000</v>
+        <v>3852885600000.001</v>
       </c>
     </row>
     <row r="13">
@@ -848,7 +860,7 @@
         <v/>
       </c>
       <c r="C13" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -860,7 +872,7 @@
         <v>192</v>
       </c>
       <c r="G13" t="n">
-        <v>3852885600.000001</v>
+        <v>3852889200000</v>
       </c>
     </row>
     <row r="14">
@@ -873,7 +885,7 @@
         <v/>
       </c>
       <c r="C14" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -885,7 +897,7 @@
         <v>192</v>
       </c>
       <c r="G14" t="n">
-        <v>3852889200</v>
+        <v>3852892799999.999</v>
       </c>
     </row>
     <row r="15">
@@ -898,7 +910,7 @@
         <v/>
       </c>
       <c r="C15" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -910,7 +922,7 @@
         <v>192</v>
       </c>
       <c r="G15" t="n">
-        <v>3852892799.999999</v>
+        <v>3852896400000.001</v>
       </c>
     </row>
     <row r="16">
@@ -923,7 +935,7 @@
         <v/>
       </c>
       <c r="C16" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -935,7 +947,7 @@
         <v>192</v>
       </c>
       <c r="G16" t="n">
-        <v>3852896400.000001</v>
+        <v>3852900000000</v>
       </c>
     </row>
     <row r="17">
@@ -948,7 +960,7 @@
         <v/>
       </c>
       <c r="C17" t="n">
-        <v>88.5</v>
+        <v>99</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -960,7 +972,7 @@
         <v>192</v>
       </c>
       <c r="G17" t="n">
-        <v>3852897000</v>
+        <v>3852903599999.999</v>
       </c>
     </row>
     <row r="18">
@@ -973,7 +985,7 @@
         <v/>
       </c>
       <c r="C18" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D18" t="n">
         <v/>
@@ -985,7 +997,7 @@
         <v>192</v>
       </c>
       <c r="G18" t="n">
-        <v>3852900000</v>
+        <v>3852907200000.001</v>
       </c>
     </row>
     <row r="19">
@@ -998,7 +1010,7 @@
         <v/>
       </c>
       <c r="C19" t="n">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D19" t="n">
         <v/>
@@ -1010,7 +1022,7 @@
         <v>192</v>
       </c>
       <c r="G19" t="n">
-        <v>3852903599.999999</v>
+        <v>3852910800000</v>
       </c>
     </row>
     <row r="20">
@@ -1023,7 +1035,7 @@
         <v/>
       </c>
       <c r="C20" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D20" t="n">
         <v/>
@@ -1035,7 +1047,7 @@
         <v>192</v>
       </c>
       <c r="G20" t="n">
-        <v>3852907200.000001</v>
+        <v>3852914399999.999</v>
       </c>
     </row>
     <row r="21">
@@ -1048,7 +1060,7 @@
         <v/>
       </c>
       <c r="C21" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D21" t="n">
         <v/>
@@ -1060,7 +1072,7 @@
         <v>192</v>
       </c>
       <c r="G21" t="n">
-        <v>3852910800</v>
+        <v>3852918000000.001</v>
       </c>
     </row>
     <row r="22">
@@ -1073,7 +1085,7 @@
         <v/>
       </c>
       <c r="C22" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D22" t="n">
         <v/>
@@ -1085,7 +1097,7 @@
         <v>192</v>
       </c>
       <c r="G22" t="n">
-        <v>3852914399.999999</v>
+        <v>3852921600000</v>
       </c>
     </row>
     <row r="23">
@@ -1098,7 +1110,7 @@
         <v/>
       </c>
       <c r="C23" t="n">
-        <v>123.5</v>
+        <v>141</v>
       </c>
       <c r="D23" t="n">
         <v/>
@@ -1110,7 +1122,7 @@
         <v>192</v>
       </c>
       <c r="G23" t="n">
-        <v>3852915000</v>
+        <v>3852925199999.999</v>
       </c>
     </row>
     <row r="24">
@@ -1123,7 +1135,7 @@
         <v/>
       </c>
       <c r="C24" t="n">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D24" t="n">
         <v/>
@@ -1135,7 +1147,7 @@
         <v>192</v>
       </c>
       <c r="G24" t="n">
-        <v>3852918000.000001</v>
+        <v>3852928800000.001</v>
       </c>
     </row>
     <row r="25">
@@ -1148,7 +1160,7 @@
         <v/>
       </c>
       <c r="C25" t="n">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D25" t="n">
         <v/>
@@ -1160,7 +1172,7 @@
         <v>192</v>
       </c>
       <c r="G25" t="n">
-        <v>3852921600</v>
+        <v>3852932400000</v>
       </c>
     </row>
     <row r="26">
@@ -1173,7 +1185,7 @@
         <v/>
       </c>
       <c r="C26" t="n">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D26" t="n">
         <v/>
@@ -1185,7 +1197,7 @@
         <v>192</v>
       </c>
       <c r="G26" t="n">
-        <v>3852925199.999999</v>
+        <v>3852935999999.999</v>
       </c>
     </row>
     <row r="27">
@@ -1198,7 +1210,7 @@
         <v/>
       </c>
       <c r="C27" t="n">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D27" t="n">
         <v/>
@@ -1210,107 +1222,7 @@
         <v>192</v>
       </c>
       <c r="G27" t="n">
-        <v>3852928800.000001</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v/>
-      </c>
-      <c r="C28" t="n">
-        <v>155</v>
-      </c>
-      <c r="D28" t="n">
-        <v/>
-      </c>
-      <c r="E28" t="n">
-        <v/>
-      </c>
-      <c r="F28" t="n">
-        <v>192</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3852932400</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v/>
-      </c>
-      <c r="C29" t="n">
-        <v>162</v>
-      </c>
-      <c r="D29" t="n">
-        <v/>
-      </c>
-      <c r="E29" t="n">
-        <v/>
-      </c>
-      <c r="F29" t="n">
-        <v>192</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3852935999.999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v/>
-      </c>
-      <c r="C30" t="n">
-        <v>165.5</v>
-      </c>
-      <c r="D30" t="n">
-        <v/>
-      </c>
-      <c r="E30" t="n">
-        <v/>
-      </c>
-      <c r="F30" t="n">
-        <v>192</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3852936000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v/>
-      </c>
-      <c r="C31" t="n">
-        <v>169</v>
-      </c>
-      <c r="D31" t="n">
-        <v/>
-      </c>
-      <c r="E31" t="n">
-        <v/>
-      </c>
-      <c r="F31" t="n">
-        <v>192</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3852939600.000001</v>
+        <v>3852939600000.001</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1247,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1" t="n">
-        <v>192</v>
-      </c>
-      <c r="G1" t="n">
-        <v>3852849599.999999</v>
+          <t>tagid</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>intvalue</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>floatvalue</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>stringvalue</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>datevalue</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dataintegrity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>t_stamp</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1355,13 +1288,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>192</v>
       </c>
       <c r="G2" t="n">
-        <v>3852856800</v>
+        <v>3852849599999.999</v>
       </c>
     </row>
     <row r="3">
@@ -1371,13 +1304,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>192</v>
       </c>
       <c r="G3" t="n">
-        <v>3852860399.999999</v>
+        <v>3852856800000</v>
       </c>
     </row>
     <row r="4">
@@ -1393,7 +1326,7 @@
         <v>192</v>
       </c>
       <c r="G4" t="n">
-        <v>3852864000.000001</v>
+        <v>3852860399999.999</v>
       </c>
     </row>
     <row r="5">
@@ -1409,7 +1342,7 @@
         <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>3852867600</v>
+        <v>3852864000000.001</v>
       </c>
     </row>
     <row r="6">
@@ -1425,7 +1358,7 @@
         <v>192</v>
       </c>
       <c r="G6" t="n">
-        <v>3852871199.999999</v>
+        <v>3852867600000</v>
       </c>
     </row>
     <row r="7">
@@ -1441,7 +1374,7 @@
         <v>192</v>
       </c>
       <c r="G7" t="n">
-        <v>3852874800.000001</v>
+        <v>3852871199999.999</v>
       </c>
     </row>
     <row r="8">
@@ -1457,7 +1390,7 @@
         <v>192</v>
       </c>
       <c r="G8" t="n">
-        <v>3852878400</v>
+        <v>3852874800000.001</v>
       </c>
     </row>
     <row r="9">
@@ -1473,7 +1406,7 @@
         <v>192</v>
       </c>
       <c r="G9" t="n">
-        <v>3852879000</v>
+        <v>3852878400000</v>
       </c>
     </row>
     <row r="10">
@@ -1489,7 +1422,7 @@
         <v>192</v>
       </c>
       <c r="G10" t="n">
-        <v>3852885600.000001</v>
+        <v>3852879000000</v>
       </c>
     </row>
     <row r="11">
@@ -1505,7 +1438,7 @@
         <v>192</v>
       </c>
       <c r="G11" t="n">
-        <v>3852889200</v>
+        <v>3852885600000.001</v>
       </c>
     </row>
     <row r="12">
@@ -1521,7 +1454,7 @@
         <v>192</v>
       </c>
       <c r="G12" t="n">
-        <v>3852892799.999999</v>
+        <v>3852889200000</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1470,7 @@
         <v>192</v>
       </c>
       <c r="G13" t="n">
-        <v>3852896400.000001</v>
+        <v>3852892799999.999</v>
       </c>
     </row>
     <row r="14">
@@ -1553,7 +1486,7 @@
         <v>192</v>
       </c>
       <c r="G14" t="n">
-        <v>3852900000</v>
+        <v>3852896400000.001</v>
       </c>
     </row>
     <row r="15">
@@ -1569,7 +1502,7 @@
         <v>192</v>
       </c>
       <c r="G15" t="n">
-        <v>3852903599.999999</v>
+        <v>3852900000000</v>
       </c>
     </row>
     <row r="16">
@@ -1585,7 +1518,7 @@
         <v>192</v>
       </c>
       <c r="G16" t="n">
-        <v>3852907200.000001</v>
+        <v>3852903599999.999</v>
       </c>
     </row>
     <row r="17">
@@ -1601,7 +1534,7 @@
         <v>192</v>
       </c>
       <c r="G17" t="n">
-        <v>3852910800</v>
+        <v>3852907200000.001</v>
       </c>
     </row>
     <row r="18">
@@ -1617,7 +1550,7 @@
         <v>192</v>
       </c>
       <c r="G18" t="n">
-        <v>3852914399.999999</v>
+        <v>3852910800000</v>
       </c>
     </row>
     <row r="19">
@@ -1633,7 +1566,7 @@
         <v>192</v>
       </c>
       <c r="G19" t="n">
-        <v>3852918000.000001</v>
+        <v>3852914399999.999</v>
       </c>
     </row>
     <row r="20">
@@ -1649,7 +1582,7 @@
         <v>192</v>
       </c>
       <c r="G20" t="n">
-        <v>3852921600</v>
+        <v>3852918000000.001</v>
       </c>
     </row>
     <row r="21">
@@ -1665,7 +1598,7 @@
         <v>192</v>
       </c>
       <c r="G21" t="n">
-        <v>3852925199.999999</v>
+        <v>3852921600000</v>
       </c>
     </row>
     <row r="22">
@@ -1681,7 +1614,7 @@
         <v>192</v>
       </c>
       <c r="G22" t="n">
-        <v>3852928800.000001</v>
+        <v>3852925199999.999</v>
       </c>
     </row>
     <row r="23">
@@ -1697,7 +1630,7 @@
         <v>192</v>
       </c>
       <c r="G23" t="n">
-        <v>3852932400</v>
+        <v>3852928800000.001</v>
       </c>
     </row>
     <row r="24">
@@ -1713,7 +1646,7 @@
         <v>192</v>
       </c>
       <c r="G24" t="n">
-        <v>3852935999.999999</v>
+        <v>3852932400000</v>
       </c>
     </row>
     <row r="25">
@@ -1729,7 +1662,23 @@
         <v>192</v>
       </c>
       <c r="G25" t="n">
-        <v>3852939600.000001</v>
+        <v>3852935999999.999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>192</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3852939600000.001</v>
       </c>
     </row>
   </sheetData>
@@ -1746,12 +1695,12 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35"/>
   <cols>
-    <col width="13.05859375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16.8203125" bestFit="1" customWidth="1" min="7" max="7"/>
     <col width="13.05859375" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="15" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="14.3515625" bestFit="1" customWidth="1" min="16" max="16"/>
@@ -1875,7 +1824,7 @@
         <v>192</v>
       </c>
       <c r="G2" s="13">
-        <f>P2</f>
+        <f>P2*1000</f>
         <v/>
       </c>
       <c r="H2" s="14" t="n"/>
@@ -1946,7 +1895,7 @@
         <v>192</v>
       </c>
       <c r="G3" s="13">
-        <f>P3</f>
+        <f>P3*1000</f>
         <v/>
       </c>
       <c r="H3" s="14" t="n"/>
@@ -2031,7 +1980,7 @@
         <v>192</v>
       </c>
       <c r="G4" s="13">
-        <f>P4</f>
+        <f>P4*1000</f>
         <v/>
       </c>
       <c r="H4" s="14" t="n"/>
@@ -2116,7 +2065,7 @@
         <v>192</v>
       </c>
       <c r="G5" s="13">
-        <f>P5</f>
+        <f>P5*1000</f>
         <v/>
       </c>
       <c r="H5" s="14" t="n"/>
@@ -2194,7 +2143,7 @@
         <v>192</v>
       </c>
       <c r="G6" s="13">
-        <f>P6</f>
+        <f>P6*1000</f>
         <v/>
       </c>
       <c r="H6" s="14" t="n"/>
@@ -2272,7 +2221,7 @@
         <v>192</v>
       </c>
       <c r="G7" s="13">
-        <f>P7</f>
+        <f>P7*1000</f>
         <v/>
       </c>
       <c r="H7" s="14" t="n"/>
@@ -2350,7 +2299,7 @@
         <v>192</v>
       </c>
       <c r="G8" s="13">
-        <f>P8</f>
+        <f>P8*1000</f>
         <v/>
       </c>
       <c r="H8" s="14" t="n"/>
@@ -2428,7 +2377,7 @@
         <v>192</v>
       </c>
       <c r="G9" s="13">
-        <f>P9</f>
+        <f>P9*1000</f>
         <v/>
       </c>
       <c r="H9" s="14" t="n"/>
@@ -2506,7 +2455,7 @@
         <v>192</v>
       </c>
       <c r="G10" s="13">
-        <f>P10</f>
+        <f>P10*1000</f>
         <v/>
       </c>
       <c r="H10" s="14" t="n"/>
@@ -2584,7 +2533,7 @@
         <v>192</v>
       </c>
       <c r="G11" s="13">
-        <f>P11</f>
+        <f>P11*1000</f>
         <v/>
       </c>
       <c r="H11" s="14" t="n"/>
@@ -2662,7 +2611,7 @@
         <v>192</v>
       </c>
       <c r="G12" s="13">
-        <f>P12</f>
+        <f>P12*1000</f>
         <v/>
       </c>
       <c r="H12" s="14" t="n"/>
@@ -2740,7 +2689,7 @@
         <v>192</v>
       </c>
       <c r="G13" s="13">
-        <f>P13</f>
+        <f>P13*1000</f>
         <v/>
       </c>
       <c r="H13" s="14" t="n"/>
@@ -2818,7 +2767,7 @@
         <v>192</v>
       </c>
       <c r="G14" s="13">
-        <f>P14</f>
+        <f>P14*1000</f>
         <v/>
       </c>
       <c r="H14" s="14" t="n"/>
@@ -2896,7 +2845,7 @@
         <v>192</v>
       </c>
       <c r="G15" s="13">
-        <f>P15</f>
+        <f>P15*1000</f>
         <v/>
       </c>
       <c r="H15" s="14" t="n"/>
@@ -2974,7 +2923,7 @@
         <v>192</v>
       </c>
       <c r="G16" s="13">
-        <f>P16</f>
+        <f>P16*1000</f>
         <v/>
       </c>
       <c r="H16" s="14" t="n"/>
@@ -3052,7 +3001,7 @@
         <v>192</v>
       </c>
       <c r="G17" s="13">
-        <f>P17</f>
+        <f>P17*1000</f>
         <v/>
       </c>
       <c r="H17" s="14" t="n"/>
@@ -3130,7 +3079,7 @@
         <v>192</v>
       </c>
       <c r="G18" s="13">
-        <f>P18</f>
+        <f>P18*1000</f>
         <v/>
       </c>
       <c r="H18" s="14" t="n"/>
@@ -3208,7 +3157,7 @@
         <v>192</v>
       </c>
       <c r="G19" s="13">
-        <f>P19</f>
+        <f>P19*1000</f>
         <v/>
       </c>
       <c r="H19" s="14" t="n"/>
@@ -3286,7 +3235,7 @@
         <v>192</v>
       </c>
       <c r="G20" s="13">
-        <f>P20</f>
+        <f>P20*1000</f>
         <v/>
       </c>
       <c r="H20" s="14" t="n"/>
@@ -3364,7 +3313,7 @@
         <v>192</v>
       </c>
       <c r="G21" s="13">
-        <f>P21</f>
+        <f>P21*1000</f>
         <v/>
       </c>
       <c r="H21" s="14" t="n"/>
@@ -3442,7 +3391,7 @@
         <v>192</v>
       </c>
       <c r="G22" s="13">
-        <f>P22</f>
+        <f>P22*1000</f>
         <v/>
       </c>
       <c r="H22" s="14" t="n"/>
@@ -3520,7 +3469,7 @@
         <v>192</v>
       </c>
       <c r="G23" s="13">
-        <f>P23</f>
+        <f>P23*1000</f>
         <v/>
       </c>
       <c r="H23" s="14" t="n"/>
@@ -3598,7 +3547,7 @@
         <v>192</v>
       </c>
       <c r="G24" s="13">
-        <f>P24</f>
+        <f>P24*1000</f>
         <v/>
       </c>
       <c r="H24" s="14" t="n"/>
@@ -3676,7 +3625,7 @@
         <v>192</v>
       </c>
       <c r="G25" s="13">
-        <f>P25</f>
+        <f>P25*1000</f>
         <v/>
       </c>
       <c r="H25" s="14" t="n"/>
@@ -3754,7 +3703,7 @@
         <v>192</v>
       </c>
       <c r="G26" s="13">
-        <f>P26</f>
+        <f>P26*1000</f>
         <v/>
       </c>
       <c r="H26" s="14" t="n"/>

--- a/data_test_input/test_book.xlsx
+++ b/data_test_input/test_book.xlsx
@@ -17,25 +17,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -83,7 +78,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -93,12 +88,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,45 +137,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +553,26 @@
           <t>t_stamp</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>human_readable_stamp</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>t_gap</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>median_gap</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>percent_of_gaps</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -810,7 +809,7 @@
         <v/>
       </c>
       <c r="C11" t="n">
-        <v>58.75</v>
+        <v>56.125</v>
       </c>
       <c r="D11" t="n">
         <v/>
@@ -835,7 +834,7 @@
         <v/>
       </c>
       <c r="C12" t="n">
-        <v>64</v>
+        <v>58.75</v>
       </c>
       <c r="D12" t="n">
         <v/>
@@ -847,7 +846,7 @@
         <v>192</v>
       </c>
       <c r="G12" t="n">
-        <v>3852885600000.001</v>
+        <v>3852885586000</v>
       </c>
     </row>
     <row r="13">
@@ -860,7 +859,7 @@
         <v/>
       </c>
       <c r="C13" t="n">
-        <v>71</v>
+        <v>61.375</v>
       </c>
       <c r="D13" t="n">
         <v/>
@@ -872,7 +871,7 @@
         <v>192</v>
       </c>
       <c r="G13" t="n">
-        <v>3852889200000</v>
+        <v>3852889185000</v>
       </c>
     </row>
     <row r="14">
@@ -885,7 +884,7 @@
         <v/>
       </c>
       <c r="C14" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D14" t="n">
         <v/>
@@ -910,7 +909,7 @@
         <v/>
       </c>
       <c r="C15" t="n">
-        <v>85</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D15" t="n">
         <v/>
@@ -922,7 +921,7 @@
         <v>192</v>
       </c>
       <c r="G15" t="n">
-        <v>3852896400000.001</v>
+        <v>3852896383000</v>
       </c>
     </row>
     <row r="16">
@@ -935,7 +934,7 @@
         <v/>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>66.8</v>
       </c>
       <c r="D16" t="n">
         <v/>
@@ -947,7 +946,7 @@
         <v>192</v>
       </c>
       <c r="G16" t="n">
-        <v>3852900000000</v>
+        <v>3852899982000</v>
       </c>
     </row>
     <row r="17">
@@ -960,7 +959,7 @@
         <v/>
       </c>
       <c r="C17" t="n">
-        <v>99</v>
+        <v>68.2</v>
       </c>
       <c r="D17" t="n">
         <v/>
@@ -972,7 +971,7 @@
         <v>192</v>
       </c>
       <c r="G17" t="n">
-        <v>3852903599999.999</v>
+        <v>3852903581000</v>
       </c>
     </row>
     <row r="18">
@@ -985,7 +984,7 @@
         <v/>
       </c>
       <c r="C18" t="n">
-        <v>106</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D18" t="n">
         <v/>
@@ -997,7 +996,7 @@
         <v>192</v>
       </c>
       <c r="G18" t="n">
-        <v>3852907200000.001</v>
+        <v>3852907180000</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1009,7 @@
         <v/>
       </c>
       <c r="C19" t="n">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
         <v/>
@@ -1035,7 +1034,7 @@
         <v/>
       </c>
       <c r="C20" t="n">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D20" t="n">
         <v/>
@@ -1060,7 +1059,7 @@
         <v/>
       </c>
       <c r="C21" t="n">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D21" t="n">
         <v/>
@@ -1072,7 +1071,7 @@
         <v>192</v>
       </c>
       <c r="G21" t="n">
-        <v>3852918000000.001</v>
+        <v>3852917999990</v>
       </c>
     </row>
     <row r="22">
@@ -1085,7 +1084,7 @@
         <v/>
       </c>
       <c r="C22" t="n">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="D22" t="n">
         <v/>
@@ -1097,7 +1096,7 @@
         <v>192</v>
       </c>
       <c r="G22" t="n">
-        <v>3852921600000</v>
+        <v>3852921599985</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1109,7 @@
         <v/>
       </c>
       <c r="C23" t="n">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="D23" t="n">
         <v/>
@@ -1122,7 +1121,7 @@
         <v>192</v>
       </c>
       <c r="G23" t="n">
-        <v>3852925199999.999</v>
+        <v>3852925199980</v>
       </c>
     </row>
     <row r="24">
@@ -1135,7 +1134,7 @@
         <v/>
       </c>
       <c r="C24" t="n">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D24" t="n">
         <v/>
@@ -1147,7 +1146,7 @@
         <v>192</v>
       </c>
       <c r="G24" t="n">
-        <v>3852928800000.001</v>
+        <v>3852928799975</v>
       </c>
     </row>
     <row r="25">
@@ -1160,7 +1159,7 @@
         <v/>
       </c>
       <c r="C25" t="n">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D25" t="n">
         <v/>
@@ -1172,7 +1171,7 @@
         <v>192</v>
       </c>
       <c r="G25" t="n">
-        <v>3852932400000</v>
+        <v>3852932399970</v>
       </c>
     </row>
     <row r="26">
@@ -1185,7 +1184,7 @@
         <v/>
       </c>
       <c r="C26" t="n">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="D26" t="n">
         <v/>
@@ -1197,7 +1196,7 @@
         <v>192</v>
       </c>
       <c r="G26" t="n">
-        <v>3852935999999.999</v>
+        <v>3852935999965</v>
       </c>
     </row>
     <row r="27">
@@ -1210,19 +1209,169 @@
         <v/>
       </c>
       <c r="C27" t="n">
+        <v>127</v>
+      </c>
+      <c r="D27" t="n">
+        <v/>
+      </c>
+      <c r="E27" t="n">
+        <v/>
+      </c>
+      <c r="F27" t="n">
+        <v>192</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3852939599960</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v/>
+      </c>
+      <c r="C28" t="n">
+        <v>134</v>
+      </c>
+      <c r="D28" t="n">
+        <v/>
+      </c>
+      <c r="E28" t="n">
+        <v/>
+      </c>
+      <c r="F28" t="n">
+        <v>192</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3852943199955</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v/>
+      </c>
+      <c r="C29" t="n">
+        <v>141</v>
+      </c>
+      <c r="D29" t="n">
+        <v/>
+      </c>
+      <c r="E29" t="n">
+        <v/>
+      </c>
+      <c r="F29" t="n">
+        <v>192</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3852946799950</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v/>
+      </c>
+      <c r="C30" t="n">
+        <v>148</v>
+      </c>
+      <c r="D30" t="n">
+        <v/>
+      </c>
+      <c r="E30" t="n">
+        <v/>
+      </c>
+      <c r="F30" t="n">
+        <v>192</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3852950399945</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v/>
+      </c>
+      <c r="C31" t="n">
+        <v>155</v>
+      </c>
+      <c r="D31" t="n">
+        <v/>
+      </c>
+      <c r="E31" t="n">
+        <v/>
+      </c>
+      <c r="F31" t="n">
+        <v>192</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3852953999940</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v/>
+      </c>
+      <c r="C32" t="n">
+        <v>162</v>
+      </c>
+      <c r="D32" t="n">
+        <v/>
+      </c>
+      <c r="E32" t="n">
+        <v/>
+      </c>
+      <c r="F32" t="n">
+        <v>192</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3852957599935</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v/>
+      </c>
+      <c r="C33" t="n">
         <v>169</v>
       </c>
-      <c r="D27" t="n">
-        <v/>
-      </c>
-      <c r="E27" t="n">
-        <v/>
-      </c>
-      <c r="F27" t="n">
-        <v>192</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3852939600000.001</v>
+      <c r="D33" t="n">
+        <v/>
+      </c>
+      <c r="E33" t="n">
+        <v/>
+      </c>
+      <c r="F33" t="n">
+        <v>192</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3852961199930</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,6 +1429,26 @@
           <t>t_stamp</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>human_readable_stamp</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>t_gap</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>median_gap</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>percent_of_gaps</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1296,6 +1465,15 @@
       <c r="G2" t="n">
         <v>3852849599999.999</v>
       </c>
+      <c r="H2" s="25" t="n">
+        <v>70162.16666666667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1312,6 +1490,18 @@
       <c r="G3" t="n">
         <v>3852856800000</v>
       </c>
+      <c r="H3" s="25" t="n">
+        <v>70162.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7200000.000976562</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1328,6 +1518,18 @@
       <c r="G4" t="n">
         <v>3852860399999.999</v>
       </c>
+      <c r="H4" s="25" t="n">
+        <v>70162.29166666667</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3599999.999023438</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1344,6 +1546,18 @@
       <c r="G5" t="n">
         <v>3852864000000.001</v>
       </c>
+      <c r="H5" s="25" t="n">
+        <v>70162.33333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3600000.001953125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K5" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1360,6 +1574,18 @@
       <c r="G6" t="n">
         <v>3852867600000</v>
       </c>
+      <c r="H6" s="25" t="n">
+        <v>70162.375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3599999.999023438</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K6" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1376,6 +1602,18 @@
       <c r="G7" t="n">
         <v>3852871199999.999</v>
       </c>
+      <c r="H7" s="25" t="n">
+        <v>70162.41666666667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3599999.999023438</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1392,6 +1630,18 @@
       <c r="G8" t="n">
         <v>3852874800000.001</v>
       </c>
+      <c r="H8" s="25" t="n">
+        <v>70162.45833333333</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3600000.001953125</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1408,6 +1658,18 @@
       <c r="G9" t="n">
         <v>3852878400000</v>
       </c>
+      <c r="H9" s="25" t="n">
+        <v>70162.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3599999.999023438</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1424,6 +1686,18 @@
       <c r="G10" t="n">
         <v>3852879000000</v>
       </c>
+      <c r="H10" s="25" t="n">
+        <v>70162.50694444444</v>
+      </c>
+      <c r="I10" t="n">
+        <v>600000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1432,13 +1706,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>192</v>
       </c>
       <c r="G11" t="n">
-        <v>3852885600000.001</v>
+        <v>3852892799999.999</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>70162.66666666667</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13799999.99902344</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K11" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1734,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>192</v>
       </c>
       <c r="G12" t="n">
-        <v>3852889200000</v>
+        <v>3852910800000</v>
+      </c>
+      <c r="H12" s="25" t="n">
+        <v>70162.875</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18000000.00097656</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1470,7 +1768,19 @@
         <v>192</v>
       </c>
       <c r="G13" t="n">
-        <v>3852892799999.999</v>
+        <v>3852914399999.999</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>70162.91666666667</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3599999.999023438</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1486,7 +1796,19 @@
         <v>192</v>
       </c>
       <c r="G14" t="n">
-        <v>3852896400000.001</v>
+        <v>3852917999990</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>70162.9583332176</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3599990.000976562</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1502,7 +1824,19 @@
         <v>192</v>
       </c>
       <c r="G15" t="n">
-        <v>3852900000000</v>
+        <v>3852921599985</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>70162.9999998264</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -1518,7 +1852,19 @@
         <v>192</v>
       </c>
       <c r="G16" t="n">
-        <v>3852903599999.999</v>
+        <v>3852925199980</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <v>70163.04166643518</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -1534,7 +1880,19 @@
         <v>192</v>
       </c>
       <c r="G17" t="n">
-        <v>3852907200000.001</v>
+        <v>3852928799975</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <v>70163.08333304398</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -1550,7 +1908,19 @@
         <v>192</v>
       </c>
       <c r="G18" t="n">
-        <v>3852910800000</v>
+        <v>3852932399970</v>
+      </c>
+      <c r="H18" s="25" t="n">
+        <v>70163.12499965278</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -1566,7 +1936,19 @@
         <v>192</v>
       </c>
       <c r="G19" t="n">
-        <v>3852914399999.999</v>
+        <v>3852935999965</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>70163.16666626158</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K19" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -1582,7 +1964,19 @@
         <v>192</v>
       </c>
       <c r="G20" t="n">
-        <v>3852918000000.001</v>
+        <v>3852939599960</v>
+      </c>
+      <c r="H20" s="25" t="n">
+        <v>70163.20833287037</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1598,7 +1992,19 @@
         <v>192</v>
       </c>
       <c r="G21" t="n">
-        <v>3852921600000</v>
+        <v>3852943199955</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <v>70163.24999947917</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K21" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -1614,7 +2020,19 @@
         <v>192</v>
       </c>
       <c r="G22" t="n">
-        <v>3852925199999.999</v>
+        <v>3852946799950</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <v>70163.29166608796</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1630,7 +2048,19 @@
         <v>192</v>
       </c>
       <c r="G23" t="n">
-        <v>3852928800000.001</v>
+        <v>3852950399945</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <v>70163.33333269675</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K23" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -1646,7 +2076,19 @@
         <v>192</v>
       </c>
       <c r="G24" t="n">
-        <v>3852932400000</v>
+        <v>3852953999940</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <v>70163.37499930555</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K24" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -1662,7 +2104,19 @@
         <v>192</v>
       </c>
       <c r="G25" t="n">
-        <v>3852935999999.999</v>
+        <v>3852957599935</v>
+      </c>
+      <c r="H25" s="25" t="n">
+        <v>70163.41666591435</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -1678,7 +2132,19 @@
         <v>192</v>
       </c>
       <c r="G26" t="n">
-        <v>3852939600000.001</v>
+        <v>3852961199930</v>
+      </c>
+      <c r="H26" s="25" t="n">
+        <v>70163.45833252315</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3599995</v>
+      </c>
+      <c r="K26" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1692,2070 +2158,2067 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35"/>
   <cols>
-    <col width="16.8203125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="13.05859375" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="15.703125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16.8203125" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="15" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="14.3515625" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="18.52734375" bestFit="1" customWidth="1" min="16" max="16"/>
     <col width="15" bestFit="1" customWidth="1" min="19" max="20"/>
     <col width="13.5859375" bestFit="1" customWidth="1" min="23" max="24"/>
     <col width="10.05859375" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="20.41015625" bestFit="1" customWidth="1" min="26" max="26"/>
-    <col width="12.52734375" bestFit="1" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>tagid</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>intvalue</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>floatvalue</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>stringvalue</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>datevalue</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>dataintegrity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>t_stamp</t>
         </is>
       </c>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="5" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="6" t="n"/>
-      <c r="Q1" s="7" t="inlineStr">
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="5" t="n"/>
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="R1" s="7" t="n"/>
-      <c r="S1" s="7" t="inlineStr">
+      <c r="R1" s="6" t="n"/>
+      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Из таблицы</t>
         </is>
       </c>
-      <c r="T1" s="7" t="inlineStr">
+      <c r="T1" s="6" t="inlineStr">
         <is>
           <t>Сдвиг вниз</t>
         </is>
       </c>
-      <c r="U1" s="7" t="inlineStr">
+      <c r="U1" s="6" t="inlineStr">
         <is>
           <t>Интервал</t>
         </is>
       </c>
-      <c r="V1" s="7" t="n"/>
-      <c r="W1" s="7" t="n"/>
-      <c r="X1" s="7" t="inlineStr">
+      <c r="V1" s="6" t="n"/>
+      <c r="W1" s="6" t="n"/>
+      <c r="X1" s="6" t="inlineStr">
         <is>
           <t>Сдвиг вниз</t>
         </is>
       </c>
-      <c r="Y1" s="7" t="inlineStr">
+      <c r="Y1" s="6" t="inlineStr">
         <is>
           <t>Интервал</t>
         </is>
       </c>
-      <c r="Z1" s="8" t="inlineStr">
+      <c r="Z1" s="7" t="inlineStr">
         <is>
           <t>Кол-во пропущеных</t>
         </is>
       </c>
-      <c r="AA1" s="9" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" s="10" t="n">
+      <c r="A2" t="n">
         <v>45</v>
       </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G2" s="13">
-        <f>P2*1000</f>
-        <v/>
-      </c>
-      <c r="H2" s="14" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="15">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>192</v>
+      </c>
+      <c r="G2" s="22" t="n">
+        <v>3852849599999.999</v>
+      </c>
+      <c r="J2" s="10">
         <f>P2</f>
         <v/>
       </c>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
-      <c r="M2" s="16" t="n">
+      <c r="K2" s="9" t="n"/>
+      <c r="L2" s="9" t="n"/>
+      <c r="M2" s="11" t="n">
         <v>44593.16666666666</v>
       </c>
-      <c r="N2" s="14" t="n"/>
-      <c r="O2" s="14" t="n"/>
-      <c r="P2" s="17">
-        <f>(M2-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q2" s="18" t="n">
+      <c r="N2" s="9" t="n"/>
+      <c r="O2" s="9" t="n"/>
+      <c r="P2" s="23">
+        <f>(M2-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="R2" s="18" t="n"/>
-      <c r="S2" s="19" t="n">
+      <c r="R2" s="12" t="n"/>
+      <c r="S2" s="13" t="n">
         <v>44593.20833333334</v>
       </c>
-      <c r="T2" s="18" t="n"/>
-      <c r="U2" s="20" t="inlineStr">
+      <c r="T2" s="12" t="n"/>
+      <c r="U2" s="14" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="V2" s="18" t="n"/>
-      <c r="W2" s="21">
+      <c r="V2" s="12" t="n"/>
+      <c r="W2" s="15">
         <f>M2</f>
         <v/>
       </c>
-      <c r="X2" s="18" t="n"/>
-      <c r="Y2" s="18" t="n"/>
-      <c r="Z2" s="22" t="n"/>
-      <c r="AA2" s="23" t="n"/>
-      <c r="AB2" s="14" t="n"/>
-      <c r="AC2" s="14" t="n"/>
+      <c r="X2" s="12" t="n"/>
+      <c r="Y2" s="12" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+      <c r="AA2" s="17" t="n"/>
+      <c r="AB2" s="9" t="n"/>
+      <c r="AC2" s="9" t="n"/>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="10" t="n">
+      <c r="A3" t="n">
         <v>45</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G3" s="13">
-        <f>P3*1000</f>
-        <v/>
-      </c>
-      <c r="H3" s="14" t="n"/>
-      <c r="I3" s="14" t="n"/>
-      <c r="J3" s="14" t="n"/>
-      <c r="K3" s="14" t="n"/>
-      <c r="L3" s="14" t="n"/>
-      <c r="M3" s="16" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>192</v>
+      </c>
+      <c r="G3" s="22" t="n">
+        <v>3852856800000</v>
+      </c>
+      <c r="J3" s="9" t="n"/>
+      <c r="K3" s="9" t="n"/>
+      <c r="L3" s="9" t="n"/>
+      <c r="M3" s="11" t="n">
         <v>44593.25</v>
       </c>
-      <c r="N3" s="14" t="n"/>
-      <c r="O3" s="14" t="n"/>
-      <c r="P3" s="17">
-        <f>(M3-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q3" s="18" t="n">
+      <c r="N3" s="9" t="n"/>
+      <c r="O3" s="9" t="n"/>
+      <c r="P3" s="23">
+        <f>(M3-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="R3" s="18" t="n"/>
-      <c r="S3" s="19" t="n">
+      <c r="R3" s="12" t="n"/>
+      <c r="S3" s="13" t="n">
         <v>44593.25</v>
       </c>
-      <c r="T3" s="24" t="n">
+      <c r="T3" s="18" t="n">
         <v>44593.20833333334</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="19">
         <f>S3-T3</f>
         <v/>
       </c>
-      <c r="V3" s="18" t="n"/>
-      <c r="W3" s="21">
+      <c r="V3" s="12" t="n"/>
+      <c r="W3" s="15">
         <f>M3</f>
         <v/>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="15">
         <f>M2</f>
         <v/>
       </c>
-      <c r="Y3" s="26">
+      <c r="Y3" s="20">
         <f>W3-X3</f>
         <v/>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="16">
         <f>Y3/$AC$4</f>
         <v/>
       </c>
-      <c r="AA3" s="23" t="n"/>
-      <c r="AB3" s="14" t="inlineStr">
+      <c r="AA3" s="17" t="n"/>
+      <c r="AB3" s="9" t="inlineStr">
         <is>
           <t>Кол-во</t>
         </is>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="9">
         <f>COUNT(W2:W26)</f>
         <v/>
       </c>
+      <c r="AD3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="10" t="n">
+      <c r="A4" t="n">
         <v>45</v>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G4" s="13">
-        <f>P4*1000</f>
-        <v/>
-      </c>
-      <c r="H4" s="14" t="n"/>
-      <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
-      <c r="K4" s="14" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="16" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>192</v>
+      </c>
+      <c r="G4" s="22" t="n">
+        <v>3852860399999.999</v>
+      </c>
+      <c r="J4" s="9" t="n"/>
+      <c r="K4" s="9" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="11" t="n">
         <v>44593.29166666666</v>
       </c>
-      <c r="N4" s="14" t="n"/>
-      <c r="O4" s="14" t="n"/>
-      <c r="P4" s="17">
-        <f>(M4-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q4" s="18" t="n">
+      <c r="N4" s="9" t="n"/>
+      <c r="O4" s="9" t="n"/>
+      <c r="P4" s="23">
+        <f>(M4-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="R4" s="18" t="n"/>
-      <c r="S4" s="19" t="n">
+      <c r="R4" s="12" t="n"/>
+      <c r="S4" s="13" t="n">
         <v>44593.29166666666</v>
       </c>
-      <c r="T4" s="24" t="n">
+      <c r="T4" s="18" t="n">
         <v>44593.25</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4" s="19">
         <f>S4-T4</f>
         <v/>
       </c>
-      <c r="V4" s="18" t="n"/>
-      <c r="W4" s="21">
+      <c r="V4" s="12" t="n"/>
+      <c r="W4" s="15">
         <f>M4</f>
         <v/>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="15">
         <f>M3</f>
         <v/>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="20">
         <f>W4-X4</f>
         <v/>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="16">
         <f>Y4/$AC$4</f>
         <v/>
       </c>
-      <c r="AA4" s="23" t="n"/>
-      <c r="AB4" s="14" t="inlineStr">
+      <c r="AA4" s="17" t="n"/>
+      <c r="AB4" s="9" t="inlineStr">
         <is>
           <t>Медиана</t>
         </is>
       </c>
-      <c r="AC4" s="27">
+      <c r="AC4" s="21">
         <f>MEDIAN(Y3:Y26)</f>
         <v/>
       </c>
+      <c r="AD4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="10" t="n">
+      <c r="A5" t="n">
         <v>45</v>
       </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G5" s="13">
-        <f>P5*1000</f>
-        <v/>
-      </c>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="14" t="n"/>
-      <c r="J5" s="14" t="n"/>
-      <c r="K5" s="14" t="n"/>
-      <c r="L5" s="14" t="n"/>
-      <c r="M5" s="16" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>192</v>
+      </c>
+      <c r="G5" s="22" t="n">
+        <v>3852864000000.001</v>
+      </c>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="9" t="n"/>
+      <c r="L5" s="9" t="n"/>
+      <c r="M5" s="11" t="n">
         <v>44593.33333333334</v>
       </c>
-      <c r="N5" s="14" t="n"/>
-      <c r="O5" s="14" t="n"/>
-      <c r="P5" s="17">
-        <f>(M5-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q5" s="18" t="n">
+      <c r="N5" s="9" t="n"/>
+      <c r="O5" s="9" t="n"/>
+      <c r="P5" s="23">
+        <f>(M5-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="R5" s="18" t="n"/>
-      <c r="S5" s="19" t="n">
+      <c r="R5" s="12" t="n"/>
+      <c r="S5" s="13" t="n">
         <v>44593.33333333334</v>
       </c>
-      <c r="T5" s="24" t="n">
+      <c r="T5" s="18" t="n">
         <v>44593.29166666666</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="19">
         <f>S5-T5</f>
         <v/>
       </c>
-      <c r="V5" s="18" t="n"/>
-      <c r="W5" s="21">
+      <c r="V5" s="12" t="n"/>
+      <c r="W5" s="15">
         <f>M5</f>
         <v/>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="15">
         <f>M4</f>
         <v/>
       </c>
-      <c r="Y5" s="26">
+      <c r="Y5" s="20">
         <f>W5-X5</f>
         <v/>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="16">
         <f>Y5/$AC$4</f>
         <v/>
       </c>
-      <c r="AA5" s="23" t="n"/>
-      <c r="AB5" s="14" t="n"/>
-      <c r="AC5" s="14" t="n"/>
+      <c r="AA5" s="17" t="n"/>
+      <c r="AB5" s="9" t="n"/>
+      <c r="AC5" s="9" t="n"/>
+      <c r="AD5" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="10" t="n">
+      <c r="A6" t="n">
         <v>45</v>
       </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G6" s="13">
-        <f>P6*1000</f>
-        <v/>
-      </c>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="14" t="n"/>
-      <c r="J6" s="14" t="n"/>
-      <c r="K6" s="14" t="n"/>
-      <c r="L6" s="14" t="n"/>
-      <c r="M6" s="16" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>192</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>3852867600000</v>
+      </c>
+      <c r="J6" s="9" t="n"/>
+      <c r="K6" s="9" t="n"/>
+      <c r="L6" s="9" t="n"/>
+      <c r="M6" s="11" t="n">
         <v>44593.375</v>
       </c>
-      <c r="N6" s="14" t="n"/>
-      <c r="O6" s="14" t="n"/>
-      <c r="P6" s="17">
-        <f>(M6-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q6" s="18" t="n">
+      <c r="N6" s="9" t="n"/>
+      <c r="O6" s="9" t="n"/>
+      <c r="P6" s="23">
+        <f>(M6-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="R6" s="18" t="n"/>
-      <c r="S6" s="19" t="n">
+      <c r="R6" s="12" t="n"/>
+      <c r="S6" s="13" t="n">
         <v>44593.375</v>
       </c>
-      <c r="T6" s="24" t="n">
+      <c r="T6" s="18" t="n">
         <v>44593.33333333334</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6" s="19">
         <f>S6-T6</f>
         <v/>
       </c>
-      <c r="V6" s="18" t="n"/>
-      <c r="W6" s="21">
+      <c r="V6" s="12" t="n"/>
+      <c r="W6" s="15">
         <f>M6</f>
         <v/>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="15">
         <f>M5</f>
         <v/>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y6" s="20">
         <f>W6-X6</f>
         <v/>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="16">
         <f>Y6/$AC$4</f>
         <v/>
       </c>
-      <c r="AA6" s="23" t="n"/>
-      <c r="AB6" s="14" t="n"/>
-      <c r="AC6" s="14" t="n"/>
+      <c r="AA6" s="17" t="n"/>
+      <c r="AB6" s="9" t="n"/>
+      <c r="AC6" s="9" t="n"/>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="10" t="n">
+      <c r="A7" t="n">
         <v>45</v>
       </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C7" s="12" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G7" s="13">
-        <f>P7*1000</f>
-        <v/>
-      </c>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="14" t="n"/>
-      <c r="J7" s="14" t="n"/>
-      <c r="K7" s="14" t="n"/>
-      <c r="L7" s="14" t="n"/>
-      <c r="M7" s="16" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>192</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>3852871199999.999</v>
+      </c>
+      <c r="J7" s="9" t="n"/>
+      <c r="K7" s="9" t="n"/>
+      <c r="L7" s="9" t="n"/>
+      <c r="M7" s="11" t="n">
         <v>44593.41666666666</v>
       </c>
-      <c r="N7" s="14" t="n"/>
-      <c r="O7" s="14" t="n"/>
-      <c r="P7" s="17">
-        <f>(M7-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q7" s="18" t="n">
+      <c r="N7" s="9" t="n"/>
+      <c r="O7" s="9" t="n"/>
+      <c r="P7" s="23">
+        <f>(M7-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="R7" s="18" t="n"/>
-      <c r="S7" s="19" t="n">
+      <c r="R7" s="12" t="n"/>
+      <c r="S7" s="13" t="n">
         <v>44593.41666666666</v>
       </c>
-      <c r="T7" s="24" t="n">
+      <c r="T7" s="18" t="n">
         <v>44593.375</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="19">
         <f>S7-T7</f>
         <v/>
       </c>
-      <c r="V7" s="18" t="n"/>
-      <c r="W7" s="21">
+      <c r="V7" s="12" t="n"/>
+      <c r="W7" s="15">
         <f>M7</f>
         <v/>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="15">
         <f>M6</f>
         <v/>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="20">
         <f>W7-X7</f>
         <v/>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="16">
         <f>Y7/$AC$4</f>
         <v/>
       </c>
-      <c r="AA7" s="23" t="n"/>
-      <c r="AB7" s="14" t="n"/>
-      <c r="AC7" s="14" t="n"/>
+      <c r="AA7" s="17" t="n"/>
+      <c r="AB7" s="9" t="n"/>
+      <c r="AC7" s="9" t="n"/>
+      <c r="AD7" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="10" t="n">
+      <c r="A8" t="n">
         <v>45</v>
       </c>
-      <c r="B8" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>43</v>
       </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G8" s="13">
-        <f>P8*1000</f>
-        <v/>
-      </c>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="14" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
-      <c r="L8" s="14" t="n"/>
-      <c r="M8" s="16" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>192</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>3852874800000.001</v>
+      </c>
+      <c r="J8" s="9" t="n"/>
+      <c r="K8" s="9" t="n"/>
+      <c r="L8" s="9" t="n"/>
+      <c r="M8" s="11" t="n">
         <v>44593.45833333334</v>
       </c>
-      <c r="N8" s="14" t="n"/>
-      <c r="O8" s="14" t="n"/>
-      <c r="P8" s="17">
-        <f>(M8-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q8" s="18" t="n">
+      <c r="N8" s="9" t="n"/>
+      <c r="O8" s="9" t="n"/>
+      <c r="P8" s="23">
+        <f>(M8-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="R8" s="18" t="n"/>
-      <c r="S8" s="19" t="n">
+      <c r="R8" s="12" t="n"/>
+      <c r="S8" s="13" t="n">
         <v>44593.45833333334</v>
       </c>
-      <c r="T8" s="24" t="n">
+      <c r="T8" s="18" t="n">
         <v>44593.41666666666</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="19">
         <f>S8-T8</f>
         <v/>
       </c>
-      <c r="V8" s="18" t="n"/>
-      <c r="W8" s="21">
+      <c r="V8" s="12" t="n"/>
+      <c r="W8" s="15">
         <f>M8</f>
         <v/>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="15">
         <f>M7</f>
         <v/>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="20">
         <f>W8-X8</f>
         <v/>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="16">
         <f>Y8/$AC$4</f>
         <v/>
       </c>
-      <c r="AA8" s="23" t="n"/>
-      <c r="AB8" s="14" t="n"/>
-      <c r="AC8" s="14" t="n"/>
+      <c r="AA8" s="17" t="n"/>
+      <c r="AB8" s="9" t="n"/>
+      <c r="AC8" s="9" t="n"/>
+      <c r="AD8" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="10" t="n">
+      <c r="A9" t="n">
         <v>45</v>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C9" s="12" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G9" s="13">
-        <f>P9*1000</f>
-        <v/>
-      </c>
-      <c r="H9" s="14" t="n"/>
-      <c r="I9" s="14" t="n"/>
-      <c r="J9" s="14" t="n"/>
-      <c r="K9" s="14" t="n"/>
-      <c r="L9" s="14" t="n"/>
-      <c r="M9" s="16" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>192</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>3852878400000</v>
+      </c>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
+      <c r="L9" s="9" t="n"/>
+      <c r="M9" s="11" t="n">
         <v>44593.5</v>
       </c>
-      <c r="N9" s="14" t="n"/>
-      <c r="O9" s="14" t="n"/>
-      <c r="P9" s="17">
-        <f>(M9-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q9" s="18" t="n">
+      <c r="N9" s="9" t="n"/>
+      <c r="O9" s="9" t="n"/>
+      <c r="P9" s="23">
+        <f>(M9-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="R9" s="18" t="n"/>
-      <c r="S9" s="19" t="n">
+      <c r="R9" s="12" t="n"/>
+      <c r="S9" s="13" t="n">
         <v>44593.5</v>
       </c>
-      <c r="T9" s="24" t="n">
+      <c r="T9" s="18" t="n">
         <v>44593.45833333334</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9" s="19">
         <f>S9-T9</f>
         <v/>
       </c>
-      <c r="V9" s="18" t="n"/>
-      <c r="W9" s="21">
+      <c r="V9" s="12" t="n"/>
+      <c r="W9" s="15">
         <f>M9</f>
         <v/>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="15">
         <f>M8</f>
         <v/>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="20">
         <f>W9-X9</f>
         <v/>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="16">
         <f>Y9/$AC$4</f>
         <v/>
       </c>
-      <c r="AA9" s="23" t="n"/>
-      <c r="AB9" s="14" t="n"/>
-      <c r="AC9" s="14" t="n"/>
+      <c r="AA9" s="17" t="n"/>
+      <c r="AB9" s="9" t="n"/>
+      <c r="AC9" s="9" t="n"/>
+      <c r="AD9" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="10" t="n">
+      <c r="A10" t="n">
         <v>45</v>
       </c>
-      <c r="B10" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>57</v>
       </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G10" s="13">
-        <f>P10*1000</f>
-        <v/>
-      </c>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="14" t="n"/>
-      <c r="J10" s="14" t="n"/>
-      <c r="K10" s="14" t="n"/>
-      <c r="L10" s="14" t="n"/>
-      <c r="M10" s="16" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>192</v>
+      </c>
+      <c r="G10" s="22" t="n">
+        <v>3852879000000</v>
+      </c>
+      <c r="J10" s="9" t="n"/>
+      <c r="K10" s="9" t="n"/>
+      <c r="L10" s="9" t="n"/>
+      <c r="M10" s="11" t="n">
         <v>44593.50694444445</v>
       </c>
-      <c r="N10" s="14" t="n"/>
-      <c r="O10" s="14" t="n"/>
-      <c r="P10" s="17">
-        <f>(M10-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q10" s="18" t="n">
+      <c r="N10" s="9" t="n"/>
+      <c r="O10" s="9" t="n"/>
+      <c r="P10" s="23">
+        <f>(M10-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="R10" s="18" t="n"/>
-      <c r="S10" s="19" t="n">
+      <c r="R10" s="12" t="n"/>
+      <c r="S10" s="13" t="n">
         <v>44593.54166666666</v>
       </c>
-      <c r="T10" s="24" t="n">
+      <c r="T10" s="18" t="n">
         <v>44593.5</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="19">
         <f>S10-T10</f>
         <v/>
       </c>
-      <c r="V10" s="18" t="n"/>
-      <c r="W10" s="21">
+      <c r="V10" s="12" t="n"/>
+      <c r="W10" s="15">
         <f>M10</f>
         <v/>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="15">
         <f>M9</f>
         <v/>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="20">
         <f>W10-X10</f>
         <v/>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="16">
         <f>Y10/$AC$4</f>
         <v/>
       </c>
-      <c r="AA10" s="23" t="n"/>
-      <c r="AB10" s="14" t="n"/>
-      <c r="AC10" s="14" t="n"/>
+      <c r="AA10" s="17" t="n"/>
+      <c r="AB10" s="9" t="n"/>
+      <c r="AC10" s="9" t="n"/>
+      <c r="AD10" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" s="10" t="n">
+      <c r="A11" t="n">
         <v>45</v>
       </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C11" s="12" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>64</v>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G11" s="13">
-        <f>P11*1000</f>
-        <v/>
-      </c>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="14" t="n"/>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="14" t="n"/>
-      <c r="L11" s="14" t="n"/>
-      <c r="M11" s="16" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>192</v>
+      </c>
+      <c r="G11" s="22" t="n">
+        <v>3852892799999.999</v>
+      </c>
+      <c r="J11" s="9" t="n"/>
+      <c r="K11" s="9" t="n"/>
+      <c r="L11" s="9" t="n"/>
+      <c r="M11" s="11" t="n">
+        <v>44593.66666666666</v>
+      </c>
+      <c r="N11" s="9" t="n"/>
+      <c r="O11" s="9" t="n"/>
+      <c r="P11" s="23">
+        <f>(M11-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="12" t="n"/>
+      <c r="S11" s="13" t="n">
         <v>44593.58333333334</v>
       </c>
-      <c r="N11" s="14" t="n"/>
-      <c r="O11" s="14" t="n"/>
-      <c r="P11" s="17">
-        <f>(M11-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q11" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="R11" s="18" t="n"/>
-      <c r="S11" s="19" t="n">
+      <c r="T11" s="18" t="n">
+        <v>44593.54166666666</v>
+      </c>
+      <c r="U11" s="19">
+        <f>S11-T11</f>
+        <v/>
+      </c>
+      <c r="V11" s="12" t="n"/>
+      <c r="W11" s="15">
+        <f>M11</f>
+        <v/>
+      </c>
+      <c r="X11" s="15">
+        <f>M10</f>
+        <v/>
+      </c>
+      <c r="Y11" s="20">
+        <f>W11-X11</f>
+        <v/>
+      </c>
+      <c r="Z11" s="16">
+        <f>Y11/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA11" s="17" t="n"/>
+      <c r="AB11" s="9" t="n"/>
+      <c r="AC11" s="9" t="n"/>
+      <c r="AD11" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" ht="15.35" customHeight="1">
+      <c r="A12" t="n">
+        <v>45</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>71</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>192</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <v>3852910800000</v>
+      </c>
+      <c r="J12" s="9" t="n"/>
+      <c r="K12" s="9" t="n"/>
+      <c r="L12" s="9" t="n"/>
+      <c r="M12" s="11" t="n">
+        <v>44593.875</v>
+      </c>
+      <c r="N12" s="9" t="n"/>
+      <c r="O12" s="9" t="n"/>
+      <c r="P12" s="23">
+        <f>(M12-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="R12" s="12" t="n"/>
+      <c r="S12" s="13" t="n">
+        <v>44593.625</v>
+      </c>
+      <c r="T12" s="18" t="n">
         <v>44593.58333333334</v>
       </c>
-      <c r="T11" s="24" t="n">
-        <v>44593.54166666666</v>
-      </c>
-      <c r="U11" s="25">
-        <f>S11-T11</f>
-        <v/>
-      </c>
-      <c r="V11" s="18" t="n"/>
-      <c r="W11" s="21">
+      <c r="U12" s="19">
+        <f>S12-T12</f>
+        <v/>
+      </c>
+      <c r="V12" s="12" t="n"/>
+      <c r="W12" s="15">
+        <f>M12</f>
+        <v/>
+      </c>
+      <c r="X12" s="15">
         <f>M11</f>
         <v/>
       </c>
-      <c r="X11" s="21">
-        <f>M10</f>
-        <v/>
-      </c>
-      <c r="Y11" s="26">
-        <f>W11-X11</f>
-        <v/>
-      </c>
-      <c r="Z11" s="22">
-        <f>Y11/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA11" s="23" t="n"/>
-      <c r="AB11" s="14" t="n"/>
-      <c r="AC11" s="14" t="n"/>
-    </row>
-    <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" s="10" t="n">
+      <c r="Y12" s="20">
+        <f>W12-X12</f>
+        <v/>
+      </c>
+      <c r="Z12" s="16">
+        <f>Y12/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA12" s="17" t="n"/>
+      <c r="AB12" s="9" t="n"/>
+      <c r="AC12" s="9" t="n"/>
+      <c r="AD12" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="15.35" customHeight="1">
+      <c r="A13" t="n">
         <v>45</v>
       </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="n">
-        <v>71</v>
-      </c>
-      <c r="D12" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E12" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G12" s="13">
-        <f>P12*1000</f>
-        <v/>
-      </c>
-      <c r="H12" s="14" t="n"/>
-      <c r="I12" s="14" t="n"/>
-      <c r="J12" s="14" t="n"/>
-      <c r="K12" s="14" t="n"/>
-      <c r="L12" s="14" t="n"/>
-      <c r="M12" s="16" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>78</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>192</v>
+      </c>
+      <c r="G13" s="22" t="n">
+        <v>3852914399999.999</v>
+      </c>
+      <c r="J13" s="9" t="n"/>
+      <c r="K13" s="9" t="n"/>
+      <c r="L13" s="9" t="n"/>
+      <c r="M13" s="11" t="n">
+        <v>44593.91666666666</v>
+      </c>
+      <c r="N13" s="9" t="n"/>
+      <c r="O13" s="9" t="n"/>
+      <c r="P13" s="23">
+        <f>(M13-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="R13" s="12" t="n"/>
+      <c r="S13" s="13" t="n">
+        <v>44593.66666666666</v>
+      </c>
+      <c r="T13" s="18" t="n">
         <v>44593.625</v>
       </c>
-      <c r="N12" s="14" t="n"/>
-      <c r="O12" s="14" t="n"/>
-      <c r="P12" s="17">
-        <f>(M12-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q12" s="18" t="n">
-        <v>11</v>
-      </c>
-      <c r="R12" s="18" t="n"/>
-      <c r="S12" s="19" t="n">
-        <v>44593.625</v>
-      </c>
-      <c r="T12" s="24" t="n">
-        <v>44593.58333333334</v>
-      </c>
-      <c r="U12" s="25">
-        <f>S12-T12</f>
-        <v/>
-      </c>
-      <c r="V12" s="18" t="n"/>
-      <c r="W12" s="21">
+      <c r="U13" s="19">
+        <f>S13-T13</f>
+        <v/>
+      </c>
+      <c r="V13" s="12" t="n"/>
+      <c r="W13" s="15">
+        <f>M13</f>
+        <v/>
+      </c>
+      <c r="X13" s="15">
         <f>M12</f>
         <v/>
       </c>
-      <c r="X12" s="21">
-        <f>M11</f>
-        <v/>
-      </c>
-      <c r="Y12" s="26">
-        <f>W12-X12</f>
-        <v/>
-      </c>
-      <c r="Z12" s="22">
-        <f>Y12/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA12" s="23" t="n"/>
-      <c r="AB12" s="14" t="n"/>
-      <c r="AC12" s="14" t="n"/>
-    </row>
-    <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" s="10" t="n">
+      <c r="Y13" s="20">
+        <f>W13-X13</f>
+        <v/>
+      </c>
+      <c r="Z13" s="16">
+        <f>Y13/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA13" s="17" t="n"/>
+      <c r="AB13" s="9" t="n"/>
+      <c r="AC13" s="9" t="n"/>
+      <c r="AD13" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" ht="15.35" customHeight="1">
+      <c r="A14" t="n">
         <v>45</v>
       </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C13" s="12" t="n">
-        <v>78</v>
-      </c>
-      <c r="D13" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G13" s="13">
-        <f>P13*1000</f>
-        <v/>
-      </c>
-      <c r="H13" s="14" t="n"/>
-      <c r="I13" s="14" t="n"/>
-      <c r="J13" s="14" t="n"/>
-      <c r="K13" s="14" t="n"/>
-      <c r="L13" s="14" t="n"/>
-      <c r="M13" s="16" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>85</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>192</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <v>3852917999990</v>
+      </c>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="9" t="n"/>
+      <c r="M14" s="11" t="n">
+        <v>44593.95833321759</v>
+      </c>
+      <c r="N14" s="9" t="n"/>
+      <c r="O14" s="9" t="n"/>
+      <c r="P14" s="23">
+        <f>(M14-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="R14" s="12" t="n"/>
+      <c r="S14" s="13" t="n">
+        <v>44593.70833333334</v>
+      </c>
+      <c r="T14" s="18" t="n">
         <v>44593.66666666666</v>
       </c>
-      <c r="N13" s="14" t="n"/>
-      <c r="O13" s="14" t="n"/>
-      <c r="P13" s="17">
-        <f>(M13-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q13" s="18" t="n">
-        <v>12</v>
-      </c>
-      <c r="R13" s="18" t="n"/>
-      <c r="S13" s="19" t="n">
-        <v>44593.66666666666</v>
-      </c>
-      <c r="T13" s="24" t="n">
-        <v>44593.625</v>
-      </c>
-      <c r="U13" s="25">
-        <f>S13-T13</f>
-        <v/>
-      </c>
-      <c r="V13" s="18" t="n"/>
-      <c r="W13" s="21">
+      <c r="U14" s="19">
+        <f>S14-T14</f>
+        <v/>
+      </c>
+      <c r="V14" s="12" t="n"/>
+      <c r="W14" s="15">
+        <f>M14</f>
+        <v/>
+      </c>
+      <c r="X14" s="15">
         <f>M13</f>
         <v/>
       </c>
-      <c r="X13" s="21">
-        <f>M12</f>
-        <v/>
-      </c>
-      <c r="Y13" s="26">
-        <f>W13-X13</f>
-        <v/>
-      </c>
-      <c r="Z13" s="22">
-        <f>Y13/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA13" s="23" t="n"/>
-      <c r="AB13" s="14" t="n"/>
-      <c r="AC13" s="14" t="n"/>
-    </row>
-    <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" s="10" t="n">
+      <c r="Y14" s="20">
+        <f>W14-X14</f>
+        <v/>
+      </c>
+      <c r="Z14" s="16">
+        <f>Y14/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA14" s="17" t="n"/>
+      <c r="AB14" s="9" t="n"/>
+      <c r="AC14" s="9" t="n"/>
+      <c r="AD14" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="15.35" customHeight="1">
+      <c r="A15" t="n">
         <v>45</v>
       </c>
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>85</v>
-      </c>
-      <c r="D14" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E14" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G14" s="13">
-        <f>P14*1000</f>
-        <v/>
-      </c>
-      <c r="H14" s="14" t="n"/>
-      <c r="I14" s="14" t="n"/>
-      <c r="J14" s="14" t="n"/>
-      <c r="K14" s="14" t="n"/>
-      <c r="L14" s="14" t="n"/>
-      <c r="M14" s="16" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>92</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>192</v>
+      </c>
+      <c r="G15" s="22" t="n">
+        <v>3852921599985</v>
+      </c>
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="9" t="n"/>
+      <c r="L15" s="9" t="n"/>
+      <c r="M15" s="11" t="n">
+        <v>44593.99999982639</v>
+      </c>
+      <c r="N15" s="9" t="n"/>
+      <c r="O15" s="9" t="n"/>
+      <c r="P15" s="23">
+        <f>(M15-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="R15" s="12" t="n"/>
+      <c r="S15" s="13" t="n">
+        <v>44593.75</v>
+      </c>
+      <c r="T15" s="18" t="n">
         <v>44593.70833333334</v>
       </c>
-      <c r="N14" s="14" t="n"/>
-      <c r="O14" s="14" t="n"/>
-      <c r="P14" s="17">
-        <f>(M14-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q14" s="18" t="n">
-        <v>13</v>
-      </c>
-      <c r="R14" s="18" t="n"/>
-      <c r="S14" s="19" t="n">
-        <v>44593.70833333334</v>
-      </c>
-      <c r="T14" s="24" t="n">
-        <v>44593.66666666666</v>
-      </c>
-      <c r="U14" s="25">
-        <f>S14-T14</f>
-        <v/>
-      </c>
-      <c r="V14" s="18" t="n"/>
-      <c r="W14" s="21">
+      <c r="U15" s="19">
+        <f>S15-T15</f>
+        <v/>
+      </c>
+      <c r="V15" s="12" t="n"/>
+      <c r="W15" s="15">
+        <f>M15</f>
+        <v/>
+      </c>
+      <c r="X15" s="15">
         <f>M14</f>
         <v/>
       </c>
-      <c r="X14" s="21">
-        <f>M13</f>
-        <v/>
-      </c>
-      <c r="Y14" s="26">
-        <f>W14-X14</f>
-        <v/>
-      </c>
-      <c r="Z14" s="22">
-        <f>Y14/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA14" s="23" t="n"/>
-      <c r="AB14" s="14" t="n"/>
-      <c r="AC14" s="14" t="n"/>
-    </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" s="10" t="n">
+      <c r="Y15" s="20">
+        <f>W15-X15</f>
+        <v/>
+      </c>
+      <c r="Z15" s="16">
+        <f>Y15/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA15" s="17" t="n"/>
+      <c r="AB15" s="9" t="n"/>
+      <c r="AC15" s="9" t="n"/>
+      <c r="AD15" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" ht="15.35" customHeight="1">
+      <c r="A16" t="n">
         <v>45</v>
       </c>
-      <c r="B15" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>92</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G15" s="13">
-        <f>P15*1000</f>
-        <v/>
-      </c>
-      <c r="H15" s="14" t="n"/>
-      <c r="I15" s="14" t="n"/>
-      <c r="J15" s="14" t="n"/>
-      <c r="K15" s="14" t="n"/>
-      <c r="L15" s="14" t="n"/>
-      <c r="M15" s="16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>99</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>192</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>3852925199980</v>
+      </c>
+      <c r="J16" s="9" t="n"/>
+      <c r="K16" s="9" t="n"/>
+      <c r="L16" s="9" t="n"/>
+      <c r="M16" s="11" t="n">
+        <v>44594.04166643519</v>
+      </c>
+      <c r="N16" s="9" t="n"/>
+      <c r="O16" s="9" t="n"/>
+      <c r="P16" s="23">
+        <f>(M16-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="R16" s="12" t="n"/>
+      <c r="S16" s="13" t="n">
+        <v>44593.79166666666</v>
+      </c>
+      <c r="T16" s="18" t="n">
         <v>44593.75</v>
       </c>
-      <c r="N15" s="14" t="n"/>
-      <c r="O15" s="14" t="n"/>
-      <c r="P15" s="17">
-        <f>(M15-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q15" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="R15" s="18" t="n"/>
-      <c r="S15" s="19" t="n">
-        <v>44593.75</v>
-      </c>
-      <c r="T15" s="24" t="n">
-        <v>44593.70833333334</v>
-      </c>
-      <c r="U15" s="25">
-        <f>S15-T15</f>
-        <v/>
-      </c>
-      <c r="V15" s="18" t="n"/>
-      <c r="W15" s="21">
+      <c r="U16" s="19">
+        <f>S16-T16</f>
+        <v/>
+      </c>
+      <c r="V16" s="12" t="n"/>
+      <c r="W16" s="15">
+        <f>M16</f>
+        <v/>
+      </c>
+      <c r="X16" s="15">
         <f>M15</f>
         <v/>
       </c>
-      <c r="X15" s="21">
-        <f>M14</f>
-        <v/>
-      </c>
-      <c r="Y15" s="26">
-        <f>W15-X15</f>
-        <v/>
-      </c>
-      <c r="Z15" s="22">
-        <f>Y15/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA15" s="23" t="n"/>
-      <c r="AB15" s="14" t="n"/>
-      <c r="AC15" s="14" t="n"/>
-    </row>
-    <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" s="10" t="n">
+      <c r="Y16" s="20">
+        <f>W16-X16</f>
+        <v/>
+      </c>
+      <c r="Z16" s="16">
+        <f>Y16/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA16" s="17" t="n"/>
+      <c r="AB16" s="9" t="n"/>
+      <c r="AC16" s="9" t="n"/>
+      <c r="AD16" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" ht="15.35" customHeight="1">
+      <c r="A17" t="n">
         <v>45</v>
       </c>
-      <c r="B16" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>99</v>
-      </c>
-      <c r="D16" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F16" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G16" s="13">
-        <f>P16*1000</f>
-        <v/>
-      </c>
-      <c r="H16" s="14" t="n"/>
-      <c r="I16" s="14" t="n"/>
-      <c r="J16" s="14" t="n"/>
-      <c r="K16" s="14" t="n"/>
-      <c r="L16" s="14" t="n"/>
-      <c r="M16" s="16" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>106</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>192</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>3852928799975</v>
+      </c>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="9" t="n"/>
+      <c r="L17" s="9" t="n"/>
+      <c r="M17" s="11" t="n">
+        <v>44594.08333304398</v>
+      </c>
+      <c r="N17" s="9" t="n"/>
+      <c r="O17" s="9" t="n"/>
+      <c r="P17" s="23">
+        <f>(M17-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="R17" s="12" t="n"/>
+      <c r="S17" s="13" t="n">
+        <v>44593.83333333334</v>
+      </c>
+      <c r="T17" s="18" t="n">
         <v>44593.79166666666</v>
       </c>
-      <c r="N16" s="14" t="n"/>
-      <c r="O16" s="14" t="n"/>
-      <c r="P16" s="17">
-        <f>(M16-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q16" s="18" t="n">
-        <v>15</v>
-      </c>
-      <c r="R16" s="18" t="n"/>
-      <c r="S16" s="19" t="n">
-        <v>44593.79166666666</v>
-      </c>
-      <c r="T16" s="24" t="n">
-        <v>44593.75</v>
-      </c>
-      <c r="U16" s="25">
-        <f>S16-T16</f>
-        <v/>
-      </c>
-      <c r="V16" s="18" t="n"/>
-      <c r="W16" s="21">
+      <c r="U17" s="19">
+        <f>S17-T17</f>
+        <v/>
+      </c>
+      <c r="V17" s="12" t="n"/>
+      <c r="W17" s="15">
+        <f>M17</f>
+        <v/>
+      </c>
+      <c r="X17" s="15">
         <f>M16</f>
         <v/>
       </c>
-      <c r="X16" s="21">
-        <f>M15</f>
-        <v/>
-      </c>
-      <c r="Y16" s="26">
-        <f>W16-X16</f>
-        <v/>
-      </c>
-      <c r="Z16" s="22">
-        <f>Y16/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA16" s="23" t="n"/>
-      <c r="AB16" s="14" t="n"/>
-      <c r="AC16" s="14" t="n"/>
-    </row>
-    <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" s="10" t="n">
+      <c r="Y17" s="20">
+        <f>W17-X17</f>
+        <v/>
+      </c>
+      <c r="Z17" s="16">
+        <f>Y17/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA17" s="17" t="n"/>
+      <c r="AB17" s="9" t="n"/>
+      <c r="AC17" s="9" t="n"/>
+      <c r="AD17" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" ht="15.35" customHeight="1">
+      <c r="A18" t="n">
         <v>45</v>
       </c>
-      <c r="B17" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>106</v>
-      </c>
-      <c r="D17" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G17" s="13">
-        <f>P17*1000</f>
-        <v/>
-      </c>
-      <c r="H17" s="14" t="n"/>
-      <c r="I17" s="14" t="n"/>
-      <c r="J17" s="14" t="n"/>
-      <c r="K17" s="14" t="n"/>
-      <c r="L17" s="14" t="n"/>
-      <c r="M17" s="16" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>113</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>192</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>3852932399970</v>
+      </c>
+      <c r="J18" s="9" t="n"/>
+      <c r="K18" s="9" t="n"/>
+      <c r="L18" s="9" t="n"/>
+      <c r="M18" s="11" t="n">
+        <v>44594.12499965278</v>
+      </c>
+      <c r="N18" s="9" t="n"/>
+      <c r="O18" s="9" t="n"/>
+      <c r="P18" s="23">
+        <f>(M18-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q18" s="12" t="n">
+        <v>17</v>
+      </c>
+      <c r="R18" s="12" t="n"/>
+      <c r="S18" s="13" t="n">
+        <v>44593.875</v>
+      </c>
+      <c r="T18" s="18" t="n">
         <v>44593.83333333334</v>
       </c>
-      <c r="N17" s="14" t="n"/>
-      <c r="O17" s="14" t="n"/>
-      <c r="P17" s="17">
-        <f>(M17-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q17" s="18" t="n">
-        <v>16</v>
-      </c>
-      <c r="R17" s="18" t="n"/>
-      <c r="S17" s="19" t="n">
-        <v>44593.83333333334</v>
-      </c>
-      <c r="T17" s="24" t="n">
-        <v>44593.79166666666</v>
-      </c>
-      <c r="U17" s="25">
-        <f>S17-T17</f>
-        <v/>
-      </c>
-      <c r="V17" s="18" t="n"/>
-      <c r="W17" s="21">
+      <c r="U18" s="19">
+        <f>S18-T18</f>
+        <v/>
+      </c>
+      <c r="V18" s="12" t="n"/>
+      <c r="W18" s="15">
+        <f>M18</f>
+        <v/>
+      </c>
+      <c r="X18" s="15">
         <f>M17</f>
         <v/>
       </c>
-      <c r="X17" s="21">
-        <f>M16</f>
-        <v/>
-      </c>
-      <c r="Y17" s="26">
-        <f>W17-X17</f>
-        <v/>
-      </c>
-      <c r="Z17" s="22">
-        <f>Y17/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA17" s="23" t="n"/>
-      <c r="AB17" s="14" t="n"/>
-      <c r="AC17" s="14" t="n"/>
-    </row>
-    <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" s="10" t="n">
+      <c r="Y18" s="20">
+        <f>W18-X18</f>
+        <v/>
+      </c>
+      <c r="Z18" s="16">
+        <f>Y18/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA18" s="17" t="n"/>
+      <c r="AB18" s="9" t="n"/>
+      <c r="AC18" s="9" t="n"/>
+      <c r="AD18" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" ht="15.35" customHeight="1">
+      <c r="A19" t="n">
         <v>45</v>
       </c>
-      <c r="B18" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>113</v>
-      </c>
-      <c r="D18" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G18" s="13">
-        <f>P18*1000</f>
-        <v/>
-      </c>
-      <c r="H18" s="14" t="n"/>
-      <c r="I18" s="14" t="n"/>
-      <c r="J18" s="14" t="n"/>
-      <c r="K18" s="14" t="n"/>
-      <c r="L18" s="14" t="n"/>
-      <c r="M18" s="16" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>120</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>192</v>
+      </c>
+      <c r="G19" s="22" t="n">
+        <v>3852935999965</v>
+      </c>
+      <c r="J19" s="9" t="n"/>
+      <c r="K19" s="9" t="n"/>
+      <c r="L19" s="9" t="n"/>
+      <c r="M19" s="11" t="n">
+        <v>44594.16666626158</v>
+      </c>
+      <c r="N19" s="9" t="n"/>
+      <c r="O19" s="9" t="n"/>
+      <c r="P19" s="23">
+        <f>(M19-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q19" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="R19" s="12" t="n"/>
+      <c r="S19" s="13" t="n">
+        <v>44593.91666666666</v>
+      </c>
+      <c r="T19" s="18" t="n">
         <v>44593.875</v>
       </c>
-      <c r="N18" s="14" t="n"/>
-      <c r="O18" s="14" t="n"/>
-      <c r="P18" s="17">
-        <f>(M18-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q18" s="18" t="n">
-        <v>17</v>
-      </c>
-      <c r="R18" s="18" t="n"/>
-      <c r="S18" s="19" t="n">
-        <v>44593.875</v>
-      </c>
-      <c r="T18" s="24" t="n">
-        <v>44593.83333333334</v>
-      </c>
-      <c r="U18" s="25">
-        <f>S18-T18</f>
-        <v/>
-      </c>
-      <c r="V18" s="18" t="n"/>
-      <c r="W18" s="21">
+      <c r="U19" s="19">
+        <f>S19-T19</f>
+        <v/>
+      </c>
+      <c r="V19" s="12" t="n"/>
+      <c r="W19" s="15">
+        <f>M19</f>
+        <v/>
+      </c>
+      <c r="X19" s="15">
         <f>M18</f>
         <v/>
       </c>
-      <c r="X18" s="21">
-        <f>M17</f>
-        <v/>
-      </c>
-      <c r="Y18" s="26">
-        <f>W18-X18</f>
-        <v/>
-      </c>
-      <c r="Z18" s="22">
-        <f>Y18/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA18" s="23" t="n"/>
-      <c r="AB18" s="14" t="n"/>
-      <c r="AC18" s="14" t="n"/>
-    </row>
-    <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" s="10" t="n">
+      <c r="Y19" s="20">
+        <f>W19-X19</f>
+        <v/>
+      </c>
+      <c r="Z19" s="16">
+        <f>Y19/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA19" s="17" t="n"/>
+      <c r="AB19" s="9" t="n"/>
+      <c r="AC19" s="9" t="n"/>
+      <c r="AD19" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" ht="15.35" customHeight="1">
+      <c r="A20" t="n">
         <v>45</v>
       </c>
-      <c r="B19" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C19" s="12" t="n">
-        <v>120</v>
-      </c>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G19" s="13">
-        <f>P19*1000</f>
-        <v/>
-      </c>
-      <c r="H19" s="14" t="n"/>
-      <c r="I19" s="14" t="n"/>
-      <c r="J19" s="14" t="n"/>
-      <c r="K19" s="14" t="n"/>
-      <c r="L19" s="14" t="n"/>
-      <c r="M19" s="16" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>127</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>192</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <v>3852939599960</v>
+      </c>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="9" t="n"/>
+      <c r="L20" s="9" t="n"/>
+      <c r="M20" s="11" t="n">
+        <v>44594.20833287037</v>
+      </c>
+      <c r="N20" s="9" t="n"/>
+      <c r="O20" s="9" t="n"/>
+      <c r="P20" s="23">
+        <f>(M20-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q20" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="R20" s="12" t="n"/>
+      <c r="S20" s="13" t="n">
+        <v>44593.95833333334</v>
+      </c>
+      <c r="T20" s="18" t="n">
         <v>44593.91666666666</v>
       </c>
-      <c r="N19" s="14" t="n"/>
-      <c r="O19" s="14" t="n"/>
-      <c r="P19" s="17">
-        <f>(M19-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q19" s="18" t="n">
-        <v>18</v>
-      </c>
-      <c r="R19" s="18" t="n"/>
-      <c r="S19" s="19" t="n">
-        <v>44593.91666666666</v>
-      </c>
-      <c r="T19" s="24" t="n">
-        <v>44593.875</v>
-      </c>
-      <c r="U19" s="25">
-        <f>S19-T19</f>
-        <v/>
-      </c>
-      <c r="V19" s="18" t="n"/>
-      <c r="W19" s="21">
+      <c r="U20" s="19">
+        <f>S20-T20</f>
+        <v/>
+      </c>
+      <c r="V20" s="12" t="n"/>
+      <c r="W20" s="15">
+        <f>M20</f>
+        <v/>
+      </c>
+      <c r="X20" s="15">
         <f>M19</f>
         <v/>
       </c>
-      <c r="X19" s="21">
-        <f>M18</f>
-        <v/>
-      </c>
-      <c r="Y19" s="26">
-        <f>W19-X19</f>
-        <v/>
-      </c>
-      <c r="Z19" s="22">
-        <f>Y19/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA19" s="23" t="n"/>
-      <c r="AB19" s="14" t="n"/>
-      <c r="AC19" s="14" t="n"/>
-    </row>
-    <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" s="10" t="n">
+      <c r="Y20" s="20">
+        <f>W20-X20</f>
+        <v/>
+      </c>
+      <c r="Z20" s="16">
+        <f>Y20/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA20" s="17" t="n"/>
+      <c r="AB20" s="9" t="n"/>
+      <c r="AC20" s="9" t="n"/>
+      <c r="AD20" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" ht="15.35" customHeight="1">
+      <c r="A21" t="n">
         <v>45</v>
       </c>
-      <c r="B20" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="n">
-        <v>127</v>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E20" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G20" s="13">
-        <f>P20*1000</f>
-        <v/>
-      </c>
-      <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="n"/>
-      <c r="J20" s="14" t="n"/>
-      <c r="K20" s="14" t="n"/>
-      <c r="L20" s="14" t="n"/>
-      <c r="M20" s="16" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>134</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>192</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <v>3852943199955</v>
+      </c>
+      <c r="J21" s="9" t="n"/>
+      <c r="K21" s="9" t="n"/>
+      <c r="L21" s="9" t="n"/>
+      <c r="M21" s="11" t="n">
+        <v>44594.24999947917</v>
+      </c>
+      <c r="N21" s="9" t="n"/>
+      <c r="O21" s="9" t="n"/>
+      <c r="P21" s="23">
+        <f>(M21-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q21" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="R21" s="12" t="n"/>
+      <c r="S21" s="13" t="n">
+        <v>44594</v>
+      </c>
+      <c r="T21" s="18" t="n">
         <v>44593.95833333334</v>
       </c>
-      <c r="N20" s="14" t="n"/>
-      <c r="O20" s="14" t="n"/>
-      <c r="P20" s="17">
-        <f>(M20-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q20" s="18" t="n">
-        <v>19</v>
-      </c>
-      <c r="R20" s="18" t="n"/>
-      <c r="S20" s="19" t="n">
-        <v>44593.95833333334</v>
-      </c>
-      <c r="T20" s="24" t="n">
-        <v>44593.91666666666</v>
-      </c>
-      <c r="U20" s="25">
-        <f>S20-T20</f>
-        <v/>
-      </c>
-      <c r="V20" s="18" t="n"/>
-      <c r="W20" s="21">
+      <c r="U21" s="19">
+        <f>S21-T21</f>
+        <v/>
+      </c>
+      <c r="V21" s="12" t="n"/>
+      <c r="W21" s="15">
+        <f>M21</f>
+        <v/>
+      </c>
+      <c r="X21" s="15">
         <f>M20</f>
         <v/>
       </c>
-      <c r="X20" s="21">
-        <f>M19</f>
-        <v/>
-      </c>
-      <c r="Y20" s="26">
-        <f>W20-X20</f>
-        <v/>
-      </c>
-      <c r="Z20" s="22">
-        <f>Y20/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA20" s="23" t="n"/>
-      <c r="AB20" s="14" t="n"/>
-      <c r="AC20" s="14" t="n"/>
-    </row>
-    <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" s="10" t="n">
+      <c r="Y21" s="20">
+        <f>W21-X21</f>
+        <v/>
+      </c>
+      <c r="Z21" s="16">
+        <f>Y21/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA21" s="17" t="n"/>
+      <c r="AB21" s="9" t="n"/>
+      <c r="AC21" s="9" t="n"/>
+      <c r="AD21" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" ht="15.35" customHeight="1">
+      <c r="A22" t="n">
         <v>45</v>
       </c>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C21" s="12" t="n">
-        <v>134</v>
-      </c>
-      <c r="D21" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E21" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G21" s="13">
-        <f>P21*1000</f>
-        <v/>
-      </c>
-      <c r="H21" s="14" t="n"/>
-      <c r="I21" s="14" t="n"/>
-      <c r="J21" s="14" t="n"/>
-      <c r="K21" s="14" t="n"/>
-      <c r="L21" s="14" t="n"/>
-      <c r="M21" s="16" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>141</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>192</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <v>3852946799950</v>
+      </c>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="9" t="n"/>
+      <c r="L22" s="9" t="n"/>
+      <c r="M22" s="11" t="n">
+        <v>44594.29166608796</v>
+      </c>
+      <c r="N22" s="9" t="n"/>
+      <c r="O22" s="9" t="n"/>
+      <c r="P22" s="23">
+        <f>(M22-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q22" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="R22" s="12" t="n"/>
+      <c r="S22" s="13" t="n">
+        <v>44594.04166666666</v>
+      </c>
+      <c r="T22" s="18" t="n">
         <v>44594</v>
       </c>
-      <c r="N21" s="14" t="n"/>
-      <c r="O21" s="14" t="n"/>
-      <c r="P21" s="17">
-        <f>(M21-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q21" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="R21" s="18" t="n"/>
-      <c r="S21" s="19" t="n">
-        <v>44594</v>
-      </c>
-      <c r="T21" s="24" t="n">
-        <v>44593.95833333334</v>
-      </c>
-      <c r="U21" s="25">
-        <f>S21-T21</f>
-        <v/>
-      </c>
-      <c r="V21" s="18" t="n"/>
-      <c r="W21" s="21">
+      <c r="U22" s="19">
+        <f>S22-T22</f>
+        <v/>
+      </c>
+      <c r="V22" s="12" t="n"/>
+      <c r="W22" s="15">
+        <f>M22</f>
+        <v/>
+      </c>
+      <c r="X22" s="15">
         <f>M21</f>
         <v/>
       </c>
-      <c r="X21" s="21">
-        <f>M20</f>
-        <v/>
-      </c>
-      <c r="Y21" s="26">
-        <f>W21-X21</f>
-        <v/>
-      </c>
-      <c r="Z21" s="22">
-        <f>Y21/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA21" s="23" t="n"/>
-      <c r="AB21" s="14" t="n"/>
-      <c r="AC21" s="14" t="n"/>
-    </row>
-    <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" s="10" t="n">
+      <c r="Y22" s="20">
+        <f>W22-X22</f>
+        <v/>
+      </c>
+      <c r="Z22" s="16">
+        <f>Y22/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA22" s="17" t="n"/>
+      <c r="AB22" s="9" t="n"/>
+      <c r="AC22" s="9" t="n"/>
+      <c r="AD22" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" ht="15.35" customHeight="1">
+      <c r="A23" t="n">
         <v>45</v>
       </c>
-      <c r="B22" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>141</v>
-      </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E22" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G22" s="13">
-        <f>P22*1000</f>
-        <v/>
-      </c>
-      <c r="H22" s="14" t="n"/>
-      <c r="I22" s="14" t="n"/>
-      <c r="J22" s="14" t="n"/>
-      <c r="K22" s="14" t="n"/>
-      <c r="L22" s="14" t="n"/>
-      <c r="M22" s="16" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>148</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>192</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <v>3852950399945</v>
+      </c>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="9" t="n"/>
+      <c r="L23" s="9" t="n"/>
+      <c r="M23" s="11" t="n">
+        <v>44594.33333269676</v>
+      </c>
+      <c r="N23" s="9" t="n"/>
+      <c r="O23" s="9" t="n"/>
+      <c r="P23" s="23">
+        <f>(M23-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q23" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="R23" s="12" t="n"/>
+      <c r="S23" s="13" t="n">
+        <v>44594.08333333334</v>
+      </c>
+      <c r="T23" s="18" t="n">
         <v>44594.04166666666</v>
       </c>
-      <c r="N22" s="14" t="n"/>
-      <c r="O22" s="14" t="n"/>
-      <c r="P22" s="17">
-        <f>(M22-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q22" s="18" t="n">
-        <v>21</v>
-      </c>
-      <c r="R22" s="18" t="n"/>
-      <c r="S22" s="19" t="n">
-        <v>44594.04166666666</v>
-      </c>
-      <c r="T22" s="24" t="n">
-        <v>44594</v>
-      </c>
-      <c r="U22" s="25">
-        <f>S22-T22</f>
-        <v/>
-      </c>
-      <c r="V22" s="18" t="n"/>
-      <c r="W22" s="21">
+      <c r="U23" s="19">
+        <f>S23-T23</f>
+        <v/>
+      </c>
+      <c r="V23" s="12" t="n"/>
+      <c r="W23" s="15">
+        <f>M23</f>
+        <v/>
+      </c>
+      <c r="X23" s="15">
         <f>M22</f>
         <v/>
       </c>
-      <c r="X22" s="21">
-        <f>M21</f>
-        <v/>
-      </c>
-      <c r="Y22" s="26">
-        <f>W22-X22</f>
-        <v/>
-      </c>
-      <c r="Z22" s="22">
-        <f>Y22/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA22" s="23" t="n"/>
-      <c r="AB22" s="14" t="n"/>
-      <c r="AC22" s="14" t="n"/>
-    </row>
-    <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" s="10" t="n">
+      <c r="Y23" s="20">
+        <f>W23-X23</f>
+        <v/>
+      </c>
+      <c r="Z23" s="16">
+        <f>Y23/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA23" s="17" t="n"/>
+      <c r="AB23" s="9" t="n"/>
+      <c r="AC23" s="9" t="n"/>
+      <c r="AD23" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" ht="15.35" customHeight="1">
+      <c r="A24" t="n">
         <v>45</v>
       </c>
-      <c r="B23" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C23" s="12" t="n">
-        <v>148</v>
-      </c>
-      <c r="D23" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G23" s="13">
-        <f>P23*1000</f>
-        <v/>
-      </c>
-      <c r="H23" s="14" t="n"/>
-      <c r="I23" s="14" t="n"/>
-      <c r="J23" s="14" t="n"/>
-      <c r="K23" s="14" t="n"/>
-      <c r="L23" s="14" t="n"/>
-      <c r="M23" s="16" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>155</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>192</v>
+      </c>
+      <c r="G24" s="22" t="n">
+        <v>3852953999940</v>
+      </c>
+      <c r="J24" s="9" t="n"/>
+      <c r="K24" s="9" t="n"/>
+      <c r="L24" s="9" t="n"/>
+      <c r="M24" s="11" t="n">
+        <v>44594.37499930555</v>
+      </c>
+      <c r="N24" s="9" t="n"/>
+      <c r="O24" s="9" t="n"/>
+      <c r="P24" s="23">
+        <f>(M24-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q24" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="R24" s="12" t="n"/>
+      <c r="S24" s="13" t="n">
+        <v>44594.125</v>
+      </c>
+      <c r="T24" s="18" t="n">
         <v>44594.08333333334</v>
       </c>
-      <c r="N23" s="14" t="n"/>
-      <c r="O23" s="14" t="n"/>
-      <c r="P23" s="17">
-        <f>(M23-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q23" s="18" t="n">
-        <v>22</v>
-      </c>
-      <c r="R23" s="18" t="n"/>
-      <c r="S23" s="19" t="n">
-        <v>44594.08333333334</v>
-      </c>
-      <c r="T23" s="24" t="n">
-        <v>44594.04166666666</v>
-      </c>
-      <c r="U23" s="25">
-        <f>S23-T23</f>
-        <v/>
-      </c>
-      <c r="V23" s="18" t="n"/>
-      <c r="W23" s="21">
+      <c r="U24" s="19">
+        <f>S24-T24</f>
+        <v/>
+      </c>
+      <c r="V24" s="12" t="n"/>
+      <c r="W24" s="15">
+        <f>M24</f>
+        <v/>
+      </c>
+      <c r="X24" s="15">
         <f>M23</f>
         <v/>
       </c>
-      <c r="X23" s="21">
-        <f>M22</f>
-        <v/>
-      </c>
-      <c r="Y23" s="26">
-        <f>W23-X23</f>
-        <v/>
-      </c>
-      <c r="Z23" s="22">
-        <f>Y23/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA23" s="23" t="n"/>
-      <c r="AB23" s="14" t="n"/>
-      <c r="AC23" s="14" t="n"/>
-    </row>
-    <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" s="10" t="n">
+      <c r="Y24" s="20">
+        <f>W24-X24</f>
+        <v/>
+      </c>
+      <c r="Z24" s="16">
+        <f>Y24/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA24" s="17" t="n"/>
+      <c r="AB24" s="9" t="n"/>
+      <c r="AC24" s="9" t="n"/>
+      <c r="AD24" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" ht="15.35" customHeight="1">
+      <c r="A25" t="n">
         <v>45</v>
       </c>
-      <c r="B24" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C24" s="12" t="n">
-        <v>155</v>
-      </c>
-      <c r="D24" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E24" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G24" s="13">
-        <f>P24*1000</f>
-        <v/>
-      </c>
-      <c r="H24" s="14" t="n"/>
-      <c r="I24" s="14" t="n"/>
-      <c r="J24" s="14" t="n"/>
-      <c r="K24" s="14" t="n"/>
-      <c r="L24" s="14" t="n"/>
-      <c r="M24" s="16" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>162</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>192</v>
+      </c>
+      <c r="G25" s="22" t="n">
+        <v>3852957599935</v>
+      </c>
+      <c r="J25" s="9" t="n"/>
+      <c r="K25" s="9" t="n"/>
+      <c r="L25" s="9" t="n"/>
+      <c r="M25" s="11" t="n">
+        <v>44594.41666591435</v>
+      </c>
+      <c r="N25" s="9" t="n"/>
+      <c r="O25" s="9" t="n"/>
+      <c r="P25" s="23">
+        <f>(M25-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q25" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="R25" s="12" t="n"/>
+      <c r="S25" s="13" t="n">
+        <v>44594.16666666666</v>
+      </c>
+      <c r="T25" s="18" t="n">
         <v>44594.125</v>
       </c>
-      <c r="N24" s="14" t="n"/>
-      <c r="O24" s="14" t="n"/>
-      <c r="P24" s="17">
-        <f>(M24-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q24" s="18" t="n">
-        <v>23</v>
-      </c>
-      <c r="R24" s="18" t="n"/>
-      <c r="S24" s="19" t="n">
-        <v>44594.125</v>
-      </c>
-      <c r="T24" s="24" t="n">
-        <v>44594.08333333334</v>
-      </c>
-      <c r="U24" s="25">
-        <f>S24-T24</f>
-        <v/>
-      </c>
-      <c r="V24" s="18" t="n"/>
-      <c r="W24" s="21">
+      <c r="U25" s="19">
+        <f>S25-T25</f>
+        <v/>
+      </c>
+      <c r="V25" s="12" t="n"/>
+      <c r="W25" s="15">
+        <f>M25</f>
+        <v/>
+      </c>
+      <c r="X25" s="15">
         <f>M24</f>
         <v/>
       </c>
-      <c r="X24" s="21">
-        <f>M23</f>
-        <v/>
-      </c>
-      <c r="Y24" s="26">
-        <f>W24-X24</f>
-        <v/>
-      </c>
-      <c r="Z24" s="22">
-        <f>Y24/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA24" s="23" t="n"/>
-      <c r="AB24" s="14" t="n"/>
-      <c r="AC24" s="14" t="n"/>
-    </row>
-    <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" s="10" t="n">
+      <c r="Y25" s="20">
+        <f>W25-X25</f>
+        <v/>
+      </c>
+      <c r="Z25" s="16">
+        <f>Y25/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA25" s="17" t="n"/>
+      <c r="AB25" s="9" t="n"/>
+      <c r="AC25" s="9" t="n"/>
+      <c r="AD25" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" ht="15.35" customHeight="1">
+      <c r="A26" t="n">
         <v>45</v>
       </c>
-      <c r="B25" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C25" s="12" t="n">
-        <v>162</v>
-      </c>
-      <c r="D25" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E25" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G25" s="13">
-        <f>P25*1000</f>
-        <v/>
-      </c>
-      <c r="H25" s="14" t="n"/>
-      <c r="I25" s="14" t="n"/>
-      <c r="J25" s="14" t="n"/>
-      <c r="K25" s="14" t="n"/>
-      <c r="L25" s="14" t="n"/>
-      <c r="M25" s="16" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>169</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>192</v>
+      </c>
+      <c r="G26" s="22" t="n">
+        <v>3852961199930</v>
+      </c>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="9" t="n"/>
+      <c r="L26" s="9" t="n"/>
+      <c r="M26" s="11" t="n">
+        <v>44594.45833252315</v>
+      </c>
+      <c r="N26" s="9" t="n"/>
+      <c r="O26" s="9" t="n"/>
+      <c r="P26" s="23">
+        <f>(M26-$M$193)*86400*1000</f>
+        <v/>
+      </c>
+      <c r="Q26" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" s="12" t="n"/>
+      <c r="S26" s="13" t="n">
+        <v>44594.20833333334</v>
+      </c>
+      <c r="T26" s="18" t="n">
         <v>44594.16666666666</v>
       </c>
-      <c r="N25" s="14" t="n"/>
-      <c r="O25" s="14" t="n"/>
-      <c r="P25" s="17">
-        <f>(M25-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q25" s="18" t="n">
-        <v>24</v>
-      </c>
-      <c r="R25" s="18" t="n"/>
-      <c r="S25" s="19" t="n">
-        <v>44594.16666666666</v>
-      </c>
-      <c r="T25" s="24" t="n">
-        <v>44594.125</v>
-      </c>
-      <c r="U25" s="25">
-        <f>S25-T25</f>
-        <v/>
-      </c>
-      <c r="V25" s="18" t="n"/>
-      <c r="W25" s="21">
+      <c r="U26" s="19">
+        <f>S26-T26</f>
+        <v/>
+      </c>
+      <c r="V26" s="12" t="n"/>
+      <c r="W26" s="15">
+        <f>M26</f>
+        <v/>
+      </c>
+      <c r="X26" s="15">
         <f>M25</f>
         <v/>
       </c>
-      <c r="X25" s="21">
-        <f>M24</f>
-        <v/>
-      </c>
-      <c r="Y25" s="26">
-        <f>W25-X25</f>
-        <v/>
-      </c>
-      <c r="Z25" s="22">
-        <f>Y25/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA25" s="23" t="n"/>
-      <c r="AB25" s="14" t="n"/>
-      <c r="AC25" s="14" t="n"/>
-    </row>
-    <row r="26" ht="15.35" customHeight="1">
-      <c r="A26" s="10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B26" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="C26" s="12" t="n">
+      <c r="Y26" s="20">
+        <f>W26-X26</f>
+        <v/>
+      </c>
+      <c r="Z26" s="16">
+        <f>Y26/$AC$4</f>
+        <v/>
+      </c>
+      <c r="AA26" s="17" t="n"/>
+      <c r="AB26" s="9" t="n"/>
+      <c r="AC26" s="9" t="n"/>
+      <c r="AD26" t="n">
         <v>169</v>
       </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="E26" s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="n">
-        <v>192</v>
-      </c>
-      <c r="G26" s="13">
-        <f>P26*1000</f>
-        <v/>
-      </c>
-      <c r="H26" s="14" t="n"/>
-      <c r="I26" s="14" t="n"/>
-      <c r="J26" s="14" t="n"/>
-      <c r="K26" s="14" t="n"/>
-      <c r="L26" s="14" t="n"/>
-      <c r="M26" s="16" t="n">
-        <v>44594.20833333334</v>
-      </c>
-      <c r="N26" s="14" t="n"/>
-      <c r="O26" s="14" t="n"/>
-      <c r="P26" s="17">
-        <f>(M26-$M$193)*86400</f>
-        <v/>
-      </c>
-      <c r="Q26" s="18" t="n">
-        <v>25</v>
-      </c>
-      <c r="R26" s="18" t="n"/>
-      <c r="S26" s="19" t="n">
-        <v>44594.20833333334</v>
-      </c>
-      <c r="T26" s="24" t="n">
-        <v>44594.16666666666</v>
-      </c>
-      <c r="U26" s="25">
-        <f>S26-T26</f>
-        <v/>
-      </c>
-      <c r="V26" s="18" t="n"/>
-      <c r="W26" s="21">
-        <f>M26</f>
-        <v/>
-      </c>
-      <c r="X26" s="21">
-        <f>M25</f>
-        <v/>
-      </c>
-      <c r="Y26" s="26">
-        <f>W26-X26</f>
-        <v/>
-      </c>
-      <c r="Z26" s="22">
-        <f>Y26/$AC$4</f>
-        <v/>
-      </c>
-      <c r="AA26" s="23" t="n"/>
-      <c r="AB26" s="14" t="n"/>
-      <c r="AC26" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>